--- a/doc/Mapei/NetMover adatexport.xlsx
+++ b/doc/Mapei/NetMover adatexport.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kerenyia\OneDrive - Mapei Group\Mapei\WIP\projektek\2018 Q2 Netmover planning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\source\PMap\doc\Mapei\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{318D0117-6FD3-4B75-9D35-FC51FBD13CA9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{C84FCDF8-9E37-43D1-8AFF-160BE84B291D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$Y$2:$AA$1002</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2100,7 +2099,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2161,7 +2160,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normál" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2472,12 +2471,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B15089BF-ECEC-44CB-8868-57C63A21BB0D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AJ2" sqref="AJ2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2489,7 +2488,7 @@
     <col min="6" max="6" width="11" customWidth="1"/>
     <col min="7" max="7" width="13.85546875" customWidth="1"/>
     <col min="8" max="8" width="10.7109375" customWidth="1"/>
-    <col min="9" max="9" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25" customWidth="1"/>
     <col min="10" max="10" width="18.28515625" customWidth="1"/>
     <col min="12" max="12" width="21.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="33.42578125" bestFit="1" customWidth="1"/>
@@ -79726,7 +79725,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="Y2:AA1002" xr:uid="{1A64F983-2E2E-4FB9-BACC-55379B9BA88E}"/>
+  <autoFilter ref="Y2:AA1002"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/doc/Mapei/NetMover adatexport.xlsx
+++ b/doc/Mapei/NetMover adatexport.xlsx
@@ -2474,9 +2474,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AJ2" sqref="AJ2"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A802" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H829" sqref="H829"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2738,7 +2738,7 @@
         <v>43264</v>
       </c>
       <c r="E3" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F3" t="s">
         <v>34</v>
@@ -2815,7 +2815,7 @@
         <v>43264</v>
       </c>
       <c r="E4" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F4" t="s">
         <v>34</v>
@@ -2892,7 +2892,7 @@
         <v>43284</v>
       </c>
       <c r="E5" s="1">
-        <v>43318</v>
+        <v>43379</v>
       </c>
       <c r="F5" t="s">
         <v>34</v>
@@ -2969,7 +2969,7 @@
         <v>43284</v>
       </c>
       <c r="E6" s="1">
-        <v>43318</v>
+        <v>43379</v>
       </c>
       <c r="F6" t="s">
         <v>34</v>
@@ -3046,7 +3046,7 @@
         <v>43284</v>
       </c>
       <c r="E7" s="1">
-        <v>43315</v>
+        <v>43376</v>
       </c>
       <c r="F7" t="s">
         <v>34</v>
@@ -3123,7 +3123,7 @@
         <v>43287</v>
       </c>
       <c r="E8" s="1">
-        <v>43317</v>
+        <v>43378</v>
       </c>
       <c r="F8" t="s">
         <v>34</v>
@@ -3200,7 +3200,7 @@
         <v>43287</v>
       </c>
       <c r="E9" s="1">
-        <v>43317</v>
+        <v>43378</v>
       </c>
       <c r="F9" t="s">
         <v>34</v>
@@ -3277,7 +3277,7 @@
         <v>43287</v>
       </c>
       <c r="E10" s="1">
-        <v>43317</v>
+        <v>43378</v>
       </c>
       <c r="F10" t="s">
         <v>34</v>
@@ -3354,7 +3354,7 @@
         <v>43287</v>
       </c>
       <c r="E11" s="1">
-        <v>43317</v>
+        <v>43378</v>
       </c>
       <c r="F11" t="s">
         <v>34</v>
@@ -3431,7 +3431,7 @@
         <v>43287</v>
       </c>
       <c r="E12" s="1">
-        <v>43317</v>
+        <v>43378</v>
       </c>
       <c r="F12" t="s">
         <v>34</v>
@@ -3508,7 +3508,7 @@
         <v>43287</v>
       </c>
       <c r="E13" s="1">
-        <v>43317</v>
+        <v>43378</v>
       </c>
       <c r="F13" t="s">
         <v>34</v>
@@ -3585,7 +3585,7 @@
         <v>43287</v>
       </c>
       <c r="E14" s="1">
-        <v>43317</v>
+        <v>43378</v>
       </c>
       <c r="F14" t="s">
         <v>34</v>
@@ -3662,7 +3662,7 @@
         <v>43287</v>
       </c>
       <c r="E15" s="1">
-        <v>43317</v>
+        <v>43378</v>
       </c>
       <c r="F15" t="s">
         <v>34</v>
@@ -3739,7 +3739,7 @@
         <v>43287</v>
       </c>
       <c r="E16" s="1">
-        <v>43317</v>
+        <v>43378</v>
       </c>
       <c r="F16" t="s">
         <v>34</v>
@@ -3816,7 +3816,7 @@
         <v>43287</v>
       </c>
       <c r="E17" s="1">
-        <v>43317</v>
+        <v>43378</v>
       </c>
       <c r="F17" t="s">
         <v>34</v>
@@ -3893,7 +3893,7 @@
         <v>43287</v>
       </c>
       <c r="E18" s="1">
-        <v>43317</v>
+        <v>43378</v>
       </c>
       <c r="F18" t="s">
         <v>34</v>
@@ -3970,7 +3970,7 @@
         <v>43287</v>
       </c>
       <c r="E19" s="1">
-        <v>43317</v>
+        <v>43378</v>
       </c>
       <c r="F19" t="s">
         <v>34</v>
@@ -4047,7 +4047,7 @@
         <v>43287</v>
       </c>
       <c r="E20" s="1">
-        <v>43317</v>
+        <v>43378</v>
       </c>
       <c r="F20" t="s">
         <v>34</v>
@@ -4124,7 +4124,7 @@
         <v>43287</v>
       </c>
       <c r="E21" s="1">
-        <v>43317</v>
+        <v>43378</v>
       </c>
       <c r="F21" t="s">
         <v>34</v>
@@ -4201,7 +4201,7 @@
         <v>43287</v>
       </c>
       <c r="E22" s="1">
-        <v>43317</v>
+        <v>43378</v>
       </c>
       <c r="F22" t="s">
         <v>34</v>
@@ -4278,7 +4278,7 @@
         <v>43287</v>
       </c>
       <c r="E23" s="1">
-        <v>43317</v>
+        <v>43378</v>
       </c>
       <c r="F23" t="s">
         <v>34</v>
@@ -4355,7 +4355,7 @@
         <v>43287</v>
       </c>
       <c r="E24" s="1">
-        <v>43317</v>
+        <v>43378</v>
       </c>
       <c r="F24" t="s">
         <v>34</v>
@@ -4432,7 +4432,7 @@
         <v>43287</v>
       </c>
       <c r="E25" s="1">
-        <v>43317</v>
+        <v>43378</v>
       </c>
       <c r="F25" t="s">
         <v>34</v>
@@ -4509,7 +4509,7 @@
         <v>43287</v>
       </c>
       <c r="E26" s="1">
-        <v>43317</v>
+        <v>43378</v>
       </c>
       <c r="F26" t="s">
         <v>34</v>
@@ -4586,7 +4586,7 @@
         <v>43287</v>
       </c>
       <c r="E27" s="1">
-        <v>43317</v>
+        <v>43378</v>
       </c>
       <c r="F27" t="s">
         <v>34</v>
@@ -4663,7 +4663,7 @@
         <v>43287</v>
       </c>
       <c r="E28" s="1">
-        <v>43317</v>
+        <v>43378</v>
       </c>
       <c r="F28" t="s">
         <v>34</v>
@@ -4740,7 +4740,7 @@
         <v>43287</v>
       </c>
       <c r="E29" s="1">
-        <v>43317</v>
+        <v>43378</v>
       </c>
       <c r="F29" t="s">
         <v>34</v>
@@ -4817,7 +4817,7 @@
         <v>43287</v>
       </c>
       <c r="E30" s="1">
-        <v>43317</v>
+        <v>43378</v>
       </c>
       <c r="F30" t="s">
         <v>34</v>
@@ -4894,7 +4894,7 @@
         <v>43287</v>
       </c>
       <c r="E31" s="1">
-        <v>43317</v>
+        <v>43378</v>
       </c>
       <c r="F31" t="s">
         <v>34</v>
@@ -4971,7 +4971,7 @@
         <v>43287</v>
       </c>
       <c r="E32" s="1">
-        <v>43317</v>
+        <v>43378</v>
       </c>
       <c r="F32" t="s">
         <v>34</v>
@@ -5048,7 +5048,7 @@
         <v>43287</v>
       </c>
       <c r="E33" s="1">
-        <v>43317</v>
+        <v>43378</v>
       </c>
       <c r="F33" t="s">
         <v>34</v>
@@ -5125,7 +5125,7 @@
         <v>43287</v>
       </c>
       <c r="E34" s="1">
-        <v>43317</v>
+        <v>43378</v>
       </c>
       <c r="F34" t="s">
         <v>34</v>
@@ -5202,7 +5202,7 @@
         <v>43287</v>
       </c>
       <c r="E35" s="1">
-        <v>43317</v>
+        <v>43378</v>
       </c>
       <c r="F35" t="s">
         <v>34</v>
@@ -5279,7 +5279,7 @@
         <v>43287</v>
       </c>
       <c r="E36" s="1">
-        <v>43317</v>
+        <v>43378</v>
       </c>
       <c r="F36" t="s">
         <v>34</v>
@@ -5356,7 +5356,7 @@
         <v>43287</v>
       </c>
       <c r="E37" s="1">
-        <v>43317</v>
+        <v>43378</v>
       </c>
       <c r="F37" t="s">
         <v>34</v>
@@ -5433,7 +5433,7 @@
         <v>43287</v>
       </c>
       <c r="E38" s="1">
-        <v>43317</v>
+        <v>43378</v>
       </c>
       <c r="F38" t="s">
         <v>34</v>
@@ -5510,7 +5510,7 @@
         <v>43287</v>
       </c>
       <c r="E39" s="1">
-        <v>43317</v>
+        <v>43378</v>
       </c>
       <c r="F39" t="s">
         <v>34</v>
@@ -5587,7 +5587,7 @@
         <v>43287</v>
       </c>
       <c r="E40" s="1">
-        <v>43317</v>
+        <v>43378</v>
       </c>
       <c r="F40" t="s">
         <v>34</v>
@@ -5664,7 +5664,7 @@
         <v>43287</v>
       </c>
       <c r="E41" s="1">
-        <v>43317</v>
+        <v>43378</v>
       </c>
       <c r="F41" t="s">
         <v>34</v>
@@ -5741,7 +5741,7 @@
         <v>43287</v>
       </c>
       <c r="E42" s="1">
-        <v>43317</v>
+        <v>43378</v>
       </c>
       <c r="F42" t="s">
         <v>34</v>
@@ -5818,7 +5818,7 @@
         <v>43287</v>
       </c>
       <c r="E43" s="1">
-        <v>43317</v>
+        <v>43378</v>
       </c>
       <c r="F43" t="s">
         <v>34</v>
@@ -5895,7 +5895,7 @@
         <v>43287</v>
       </c>
       <c r="E44" s="1">
-        <v>43317</v>
+        <v>43378</v>
       </c>
       <c r="F44" t="s">
         <v>34</v>
@@ -5972,7 +5972,7 @@
         <v>43287</v>
       </c>
       <c r="E45" s="1">
-        <v>43317</v>
+        <v>43378</v>
       </c>
       <c r="F45" t="s">
         <v>34</v>
@@ -6049,7 +6049,7 @@
         <v>43287</v>
       </c>
       <c r="E46" s="1">
-        <v>43317</v>
+        <v>43378</v>
       </c>
       <c r="F46" t="s">
         <v>34</v>
@@ -6126,7 +6126,7 @@
         <v>43287</v>
       </c>
       <c r="E47" s="1">
-        <v>43317</v>
+        <v>43378</v>
       </c>
       <c r="F47" t="s">
         <v>34</v>
@@ -6203,7 +6203,7 @@
         <v>43287</v>
       </c>
       <c r="E48" s="1">
-        <v>43317</v>
+        <v>43378</v>
       </c>
       <c r="F48" t="s">
         <v>34</v>
@@ -6280,7 +6280,7 @@
         <v>43287</v>
       </c>
       <c r="E49" s="1">
-        <v>43317</v>
+        <v>43378</v>
       </c>
       <c r="F49" t="s">
         <v>34</v>
@@ -6357,7 +6357,7 @@
         <v>43287</v>
       </c>
       <c r="E50" s="1">
-        <v>43317</v>
+        <v>43378</v>
       </c>
       <c r="F50" t="s">
         <v>34</v>
@@ -6434,7 +6434,7 @@
         <v>43287</v>
       </c>
       <c r="E51" s="1">
-        <v>43317</v>
+        <v>43378</v>
       </c>
       <c r="F51" t="s">
         <v>34</v>
@@ -6511,7 +6511,7 @@
         <v>43287</v>
       </c>
       <c r="E52" s="1">
-        <v>43317</v>
+        <v>43378</v>
       </c>
       <c r="F52" t="s">
         <v>34</v>
@@ -6588,7 +6588,7 @@
         <v>43287</v>
       </c>
       <c r="E53" s="1">
-        <v>43317</v>
+        <v>43378</v>
       </c>
       <c r="F53" t="s">
         <v>34</v>
@@ -6665,7 +6665,7 @@
         <v>43287</v>
       </c>
       <c r="E54" s="1">
-        <v>43317</v>
+        <v>43378</v>
       </c>
       <c r="F54" t="s">
         <v>34</v>
@@ -6742,7 +6742,7 @@
         <v>43287</v>
       </c>
       <c r="E55" s="1">
-        <v>43317</v>
+        <v>43378</v>
       </c>
       <c r="F55" t="s">
         <v>34</v>
@@ -6819,7 +6819,7 @@
         <v>43287</v>
       </c>
       <c r="E56" s="1">
-        <v>43317</v>
+        <v>43378</v>
       </c>
       <c r="F56" t="s">
         <v>34</v>
@@ -6896,7 +6896,7 @@
         <v>43287</v>
       </c>
       <c r="E57" s="1">
-        <v>43317</v>
+        <v>43378</v>
       </c>
       <c r="F57" t="s">
         <v>34</v>
@@ -6973,7 +6973,7 @@
         <v>43287</v>
       </c>
       <c r="E58" s="1">
-        <v>43317</v>
+        <v>43378</v>
       </c>
       <c r="F58" t="s">
         <v>34</v>
@@ -7050,7 +7050,7 @@
         <v>43287</v>
       </c>
       <c r="E59" s="1">
-        <v>43317</v>
+        <v>43378</v>
       </c>
       <c r="F59" t="s">
         <v>34</v>
@@ -7127,7 +7127,7 @@
         <v>43287</v>
       </c>
       <c r="E60" s="1">
-        <v>43317</v>
+        <v>43378</v>
       </c>
       <c r="F60" t="s">
         <v>34</v>
@@ -7204,7 +7204,7 @@
         <v>43287</v>
       </c>
       <c r="E61" s="1">
-        <v>43317</v>
+        <v>43378</v>
       </c>
       <c r="F61" t="s">
         <v>34</v>
@@ -7281,7 +7281,7 @@
         <v>43287</v>
       </c>
       <c r="E62" s="1">
-        <v>43317</v>
+        <v>43378</v>
       </c>
       <c r="F62" t="s">
         <v>34</v>
@@ -7358,7 +7358,7 @@
         <v>43287</v>
       </c>
       <c r="E63" s="1">
-        <v>43317</v>
+        <v>43378</v>
       </c>
       <c r="F63" t="s">
         <v>34</v>
@@ -7435,7 +7435,7 @@
         <v>43287</v>
       </c>
       <c r="E64" s="1">
-        <v>43317</v>
+        <v>43378</v>
       </c>
       <c r="F64" t="s">
         <v>34</v>
@@ -7512,7 +7512,7 @@
         <v>43287</v>
       </c>
       <c r="E65" s="1">
-        <v>43317</v>
+        <v>43378</v>
       </c>
       <c r="F65" t="s">
         <v>34</v>
@@ -7589,7 +7589,7 @@
         <v>43287</v>
       </c>
       <c r="E66" s="1">
-        <v>43317</v>
+        <v>43378</v>
       </c>
       <c r="F66" t="s">
         <v>34</v>
@@ -7666,7 +7666,7 @@
         <v>43287</v>
       </c>
       <c r="E67" s="1">
-        <v>43317</v>
+        <v>43378</v>
       </c>
       <c r="F67" t="s">
         <v>34</v>
@@ -7743,7 +7743,7 @@
         <v>43287</v>
       </c>
       <c r="E68" s="1">
-        <v>43317</v>
+        <v>43378</v>
       </c>
       <c r="F68" t="s">
         <v>34</v>
@@ -7820,7 +7820,7 @@
         <v>43287</v>
       </c>
       <c r="E69" s="1">
-        <v>43317</v>
+        <v>43378</v>
       </c>
       <c r="F69" t="s">
         <v>34</v>
@@ -7897,7 +7897,7 @@
         <v>43287</v>
       </c>
       <c r="E70" s="1">
-        <v>43317</v>
+        <v>43378</v>
       </c>
       <c r="F70" t="s">
         <v>34</v>
@@ -7974,7 +7974,7 @@
         <v>43287</v>
       </c>
       <c r="E71" s="1">
-        <v>43317</v>
+        <v>43378</v>
       </c>
       <c r="F71" t="s">
         <v>34</v>
@@ -8051,7 +8051,7 @@
         <v>43287</v>
       </c>
       <c r="E72" s="1">
-        <v>43317</v>
+        <v>43378</v>
       </c>
       <c r="F72" t="s">
         <v>34</v>
@@ -8128,7 +8128,7 @@
         <v>43287</v>
       </c>
       <c r="E73" s="1">
-        <v>43317</v>
+        <v>43378</v>
       </c>
       <c r="F73" t="s">
         <v>34</v>
@@ -8205,7 +8205,7 @@
         <v>43287</v>
       </c>
       <c r="E74" s="1">
-        <v>43317</v>
+        <v>43378</v>
       </c>
       <c r="F74" t="s">
         <v>34</v>
@@ -8282,7 +8282,7 @@
         <v>43287</v>
       </c>
       <c r="E75" s="1">
-        <v>43317</v>
+        <v>43378</v>
       </c>
       <c r="F75" t="s">
         <v>34</v>
@@ -8359,7 +8359,7 @@
         <v>43287</v>
       </c>
       <c r="E76" s="1">
-        <v>43317</v>
+        <v>43378</v>
       </c>
       <c r="F76" t="s">
         <v>34</v>
@@ -8436,7 +8436,7 @@
         <v>43287</v>
       </c>
       <c r="E77" s="1">
-        <v>43317</v>
+        <v>43378</v>
       </c>
       <c r="F77" t="s">
         <v>34</v>
@@ -8513,7 +8513,7 @@
         <v>43287</v>
       </c>
       <c r="E78" s="1">
-        <v>43317</v>
+        <v>43378</v>
       </c>
       <c r="F78" t="s">
         <v>34</v>
@@ -8590,7 +8590,7 @@
         <v>43287</v>
       </c>
       <c r="E79" s="1">
-        <v>43317</v>
+        <v>43378</v>
       </c>
       <c r="F79" t="s">
         <v>34</v>
@@ -8667,7 +8667,7 @@
         <v>43287</v>
       </c>
       <c r="E80" s="1">
-        <v>43317</v>
+        <v>43378</v>
       </c>
       <c r="F80" t="s">
         <v>34</v>
@@ -8744,7 +8744,7 @@
         <v>43287</v>
       </c>
       <c r="E81" s="1">
-        <v>43317</v>
+        <v>43378</v>
       </c>
       <c r="F81" t="s">
         <v>34</v>
@@ -8821,7 +8821,7 @@
         <v>43287</v>
       </c>
       <c r="E82" s="1">
-        <v>43317</v>
+        <v>43378</v>
       </c>
       <c r="F82" t="s">
         <v>34</v>
@@ -8898,7 +8898,7 @@
         <v>43287</v>
       </c>
       <c r="E83" s="1">
-        <v>43317</v>
+        <v>43378</v>
       </c>
       <c r="F83" t="s">
         <v>34</v>
@@ -8975,7 +8975,7 @@
         <v>43287</v>
       </c>
       <c r="E84" s="1">
-        <v>43317</v>
+        <v>43378</v>
       </c>
       <c r="F84" t="s">
         <v>34</v>
@@ -9052,7 +9052,7 @@
         <v>43287</v>
       </c>
       <c r="E85" s="1">
-        <v>43317</v>
+        <v>43378</v>
       </c>
       <c r="F85" t="s">
         <v>34</v>
@@ -9129,7 +9129,7 @@
         <v>43287</v>
       </c>
       <c r="E86" s="1">
-        <v>43317</v>
+        <v>43378</v>
       </c>
       <c r="F86" t="s">
         <v>34</v>
@@ -9206,7 +9206,7 @@
         <v>43287</v>
       </c>
       <c r="E87" s="1">
-        <v>43317</v>
+        <v>43378</v>
       </c>
       <c r="F87" t="s">
         <v>34</v>
@@ -9283,7 +9283,7 @@
         <v>43287</v>
       </c>
       <c r="E88" s="1">
-        <v>43317</v>
+        <v>43378</v>
       </c>
       <c r="F88" t="s">
         <v>34</v>
@@ -9360,7 +9360,7 @@
         <v>43287</v>
       </c>
       <c r="E89" s="1">
-        <v>43317</v>
+        <v>43378</v>
       </c>
       <c r="F89" t="s">
         <v>34</v>
@@ -9437,7 +9437,7 @@
         <v>43287</v>
       </c>
       <c r="E90" s="1">
-        <v>43317</v>
+        <v>43378</v>
       </c>
       <c r="F90" t="s">
         <v>34</v>
@@ -9514,7 +9514,7 @@
         <v>43287</v>
       </c>
       <c r="E91" s="1">
-        <v>43317</v>
+        <v>43378</v>
       </c>
       <c r="F91" t="s">
         <v>34</v>
@@ -9591,7 +9591,7 @@
         <v>43287</v>
       </c>
       <c r="E92" s="1">
-        <v>43317</v>
+        <v>43378</v>
       </c>
       <c r="F92" t="s">
         <v>34</v>
@@ -9668,7 +9668,7 @@
         <v>43287</v>
       </c>
       <c r="E93" s="1">
-        <v>43317</v>
+        <v>43378</v>
       </c>
       <c r="F93" t="s">
         <v>34</v>
@@ -9745,7 +9745,7 @@
         <v>43287</v>
       </c>
       <c r="E94" s="1">
-        <v>43317</v>
+        <v>43378</v>
       </c>
       <c r="F94" t="s">
         <v>34</v>
@@ -9822,7 +9822,7 @@
         <v>43287</v>
       </c>
       <c r="E95" s="1">
-        <v>43317</v>
+        <v>43378</v>
       </c>
       <c r="F95" t="s">
         <v>34</v>
@@ -9899,7 +9899,7 @@
         <v>43287</v>
       </c>
       <c r="E96" s="1">
-        <v>43317</v>
+        <v>43378</v>
       </c>
       <c r="F96" t="s">
         <v>34</v>
@@ -9976,7 +9976,7 @@
         <v>43287</v>
       </c>
       <c r="E97" s="1">
-        <v>43317</v>
+        <v>43378</v>
       </c>
       <c r="F97" t="s">
         <v>34</v>
@@ -10053,7 +10053,7 @@
         <v>43287</v>
       </c>
       <c r="E98" s="1">
-        <v>43317</v>
+        <v>43378</v>
       </c>
       <c r="F98" t="s">
         <v>34</v>
@@ -10130,7 +10130,7 @@
         <v>43287</v>
       </c>
       <c r="E99" s="1">
-        <v>43317</v>
+        <v>43378</v>
       </c>
       <c r="F99" t="s">
         <v>34</v>
@@ -10207,7 +10207,7 @@
         <v>43287</v>
       </c>
       <c r="E100" s="1">
-        <v>43317</v>
+        <v>43378</v>
       </c>
       <c r="F100" t="s">
         <v>34</v>
@@ -10284,7 +10284,7 @@
         <v>43287</v>
       </c>
       <c r="E101" s="1">
-        <v>43317</v>
+        <v>43378</v>
       </c>
       <c r="F101" t="s">
         <v>34</v>
@@ -10361,7 +10361,7 @@
         <v>43287</v>
       </c>
       <c r="E102" s="1">
-        <v>43317</v>
+        <v>43378</v>
       </c>
       <c r="F102" t="s">
         <v>34</v>
@@ -10438,7 +10438,7 @@
         <v>43287</v>
       </c>
       <c r="E103" s="1">
-        <v>43317</v>
+        <v>43378</v>
       </c>
       <c r="F103" t="s">
         <v>34</v>
@@ -10515,7 +10515,7 @@
         <v>43287</v>
       </c>
       <c r="E104" s="1">
-        <v>43317</v>
+        <v>43378</v>
       </c>
       <c r="F104" t="s">
         <v>34</v>
@@ -10592,7 +10592,7 @@
         <v>43287</v>
       </c>
       <c r="E105" s="1">
-        <v>43317</v>
+        <v>43378</v>
       </c>
       <c r="F105" t="s">
         <v>34</v>
@@ -10669,7 +10669,7 @@
         <v>43287</v>
       </c>
       <c r="E106" s="1">
-        <v>43317</v>
+        <v>43378</v>
       </c>
       <c r="F106" t="s">
         <v>34</v>
@@ -10746,7 +10746,7 @@
         <v>43287</v>
       </c>
       <c r="E107" s="1">
-        <v>43317</v>
+        <v>43378</v>
       </c>
       <c r="F107" t="s">
         <v>34</v>
@@ -10823,7 +10823,7 @@
         <v>43287</v>
       </c>
       <c r="E108" s="1">
-        <v>43317</v>
+        <v>43378</v>
       </c>
       <c r="F108" t="s">
         <v>34</v>
@@ -10900,7 +10900,7 @@
         <v>43287</v>
       </c>
       <c r="E109" s="1">
-        <v>43317</v>
+        <v>43378</v>
       </c>
       <c r="F109" t="s">
         <v>34</v>
@@ -10977,7 +10977,7 @@
         <v>43287</v>
       </c>
       <c r="E110" s="1">
-        <v>43317</v>
+        <v>43378</v>
       </c>
       <c r="F110" t="s">
         <v>34</v>
@@ -11054,7 +11054,7 @@
         <v>43287</v>
       </c>
       <c r="E111" s="1">
-        <v>43317</v>
+        <v>43378</v>
       </c>
       <c r="F111" t="s">
         <v>34</v>
@@ -11131,7 +11131,7 @@
         <v>43287</v>
       </c>
       <c r="E112" s="1">
-        <v>43317</v>
+        <v>43378</v>
       </c>
       <c r="F112" t="s">
         <v>34</v>
@@ -11208,7 +11208,7 @@
         <v>43287</v>
       </c>
       <c r="E113" s="1">
-        <v>43317</v>
+        <v>43378</v>
       </c>
       <c r="F113" t="s">
         <v>34</v>
@@ -11285,7 +11285,7 @@
         <v>43287</v>
       </c>
       <c r="E114" s="1">
-        <v>43317</v>
+        <v>43378</v>
       </c>
       <c r="F114" t="s">
         <v>34</v>
@@ -11362,7 +11362,7 @@
         <v>43287</v>
       </c>
       <c r="E115" s="1">
-        <v>43317</v>
+        <v>43378</v>
       </c>
       <c r="F115" t="s">
         <v>34</v>
@@ -11439,7 +11439,7 @@
         <v>43287</v>
       </c>
       <c r="E116" s="1">
-        <v>43317</v>
+        <v>43378</v>
       </c>
       <c r="F116" t="s">
         <v>34</v>
@@ -11516,7 +11516,7 @@
         <v>43287</v>
       </c>
       <c r="E117" s="1">
-        <v>43317</v>
+        <v>43378</v>
       </c>
       <c r="F117" t="s">
         <v>34</v>
@@ -11593,7 +11593,7 @@
         <v>43287</v>
       </c>
       <c r="E118" s="1">
-        <v>43317</v>
+        <v>43378</v>
       </c>
       <c r="F118" t="s">
         <v>34</v>
@@ -11670,7 +11670,7 @@
         <v>43287</v>
       </c>
       <c r="E119" s="1">
-        <v>43317</v>
+        <v>43378</v>
       </c>
       <c r="F119" t="s">
         <v>34</v>
@@ -11747,7 +11747,7 @@
         <v>43287</v>
       </c>
       <c r="E120" s="1">
-        <v>43317</v>
+        <v>43378</v>
       </c>
       <c r="F120" t="s">
         <v>34</v>
@@ -11824,7 +11824,7 @@
         <v>43287</v>
       </c>
       <c r="E121" s="1">
-        <v>43317</v>
+        <v>43378</v>
       </c>
       <c r="F121" t="s">
         <v>34</v>
@@ -11901,7 +11901,7 @@
         <v>43287</v>
       </c>
       <c r="E122" s="1">
-        <v>43317</v>
+        <v>43378</v>
       </c>
       <c r="F122" t="s">
         <v>34</v>
@@ -11978,7 +11978,7 @@
         <v>43287</v>
       </c>
       <c r="E123" s="1">
-        <v>43317</v>
+        <v>43378</v>
       </c>
       <c r="F123" t="s">
         <v>34</v>
@@ -12055,7 +12055,7 @@
         <v>43287</v>
       </c>
       <c r="E124" s="1">
-        <v>43317</v>
+        <v>43378</v>
       </c>
       <c r="F124" t="s">
         <v>34</v>
@@ -12132,7 +12132,7 @@
         <v>43287</v>
       </c>
       <c r="E125" s="1">
-        <v>43317</v>
+        <v>43378</v>
       </c>
       <c r="F125" t="s">
         <v>34</v>
@@ -12209,7 +12209,7 @@
         <v>43287</v>
       </c>
       <c r="E126" s="1">
-        <v>43317</v>
+        <v>43378</v>
       </c>
       <c r="F126" t="s">
         <v>34</v>
@@ -12286,7 +12286,7 @@
         <v>43287</v>
       </c>
       <c r="E127" s="1">
-        <v>43317</v>
+        <v>43378</v>
       </c>
       <c r="F127" t="s">
         <v>34</v>
@@ -12363,7 +12363,7 @@
         <v>43287</v>
       </c>
       <c r="E128" s="1">
-        <v>43317</v>
+        <v>43378</v>
       </c>
       <c r="F128" t="s">
         <v>34</v>
@@ -12440,7 +12440,7 @@
         <v>43287</v>
       </c>
       <c r="E129" s="1">
-        <v>43317</v>
+        <v>43378</v>
       </c>
       <c r="F129" t="s">
         <v>34</v>
@@ -12517,7 +12517,7 @@
         <v>43287</v>
       </c>
       <c r="E130" s="1">
-        <v>43317</v>
+        <v>43378</v>
       </c>
       <c r="F130" t="s">
         <v>34</v>
@@ -12594,7 +12594,7 @@
         <v>43287</v>
       </c>
       <c r="E131" s="1">
-        <v>43317</v>
+        <v>43378</v>
       </c>
       <c r="F131" t="s">
         <v>34</v>
@@ -12671,7 +12671,7 @@
         <v>43287</v>
       </c>
       <c r="E132" s="1">
-        <v>43317</v>
+        <v>43378</v>
       </c>
       <c r="F132" t="s">
         <v>34</v>
@@ -12748,7 +12748,7 @@
         <v>43287</v>
       </c>
       <c r="E133" s="1">
-        <v>43317</v>
+        <v>43378</v>
       </c>
       <c r="F133" t="s">
         <v>34</v>
@@ -12825,7 +12825,7 @@
         <v>43287</v>
       </c>
       <c r="E134" s="1">
-        <v>43317</v>
+        <v>43378</v>
       </c>
       <c r="F134" t="s">
         <v>34</v>
@@ -12902,7 +12902,7 @@
         <v>43287</v>
       </c>
       <c r="E135" s="1">
-        <v>43317</v>
+        <v>43378</v>
       </c>
       <c r="F135" t="s">
         <v>34</v>
@@ -12979,7 +12979,7 @@
         <v>43287</v>
       </c>
       <c r="E136" s="1">
-        <v>43317</v>
+        <v>43378</v>
       </c>
       <c r="F136" t="s">
         <v>34</v>
@@ -13056,7 +13056,7 @@
         <v>43287</v>
       </c>
       <c r="E137" s="1">
-        <v>43317</v>
+        <v>43378</v>
       </c>
       <c r="F137" t="s">
         <v>34</v>
@@ -13133,7 +13133,7 @@
         <v>43287</v>
       </c>
       <c r="E138" s="1">
-        <v>43317</v>
+        <v>43378</v>
       </c>
       <c r="F138" t="s">
         <v>34</v>
@@ -13210,7 +13210,7 @@
         <v>43287</v>
       </c>
       <c r="E139" s="1">
-        <v>43317</v>
+        <v>43378</v>
       </c>
       <c r="F139" t="s">
         <v>34</v>
@@ -13287,7 +13287,7 @@
         <v>43287</v>
       </c>
       <c r="E140" s="1">
-        <v>43317</v>
+        <v>43378</v>
       </c>
       <c r="F140" t="s">
         <v>34</v>
@@ -13364,7 +13364,7 @@
         <v>43287</v>
       </c>
       <c r="E141" s="1">
-        <v>43317</v>
+        <v>43378</v>
       </c>
       <c r="F141" t="s">
         <v>34</v>
@@ -13441,7 +13441,7 @@
         <v>43287</v>
       </c>
       <c r="E142" s="1">
-        <v>43317</v>
+        <v>43378</v>
       </c>
       <c r="F142" t="s">
         <v>34</v>
@@ -13518,7 +13518,7 @@
         <v>43287</v>
       </c>
       <c r="E143" s="1">
-        <v>43317</v>
+        <v>43378</v>
       </c>
       <c r="F143" t="s">
         <v>34</v>
@@ -13595,7 +13595,7 @@
         <v>43287</v>
       </c>
       <c r="E144" s="1">
-        <v>43317</v>
+        <v>43378</v>
       </c>
       <c r="F144" t="s">
         <v>34</v>
@@ -13672,7 +13672,7 @@
         <v>43287</v>
       </c>
       <c r="E145" s="1">
-        <v>43317</v>
+        <v>43378</v>
       </c>
       <c r="F145" t="s">
         <v>34</v>
@@ -13749,7 +13749,7 @@
         <v>43287</v>
       </c>
       <c r="E146" s="1">
-        <v>43317</v>
+        <v>43378</v>
       </c>
       <c r="F146" t="s">
         <v>34</v>
@@ -13826,7 +13826,7 @@
         <v>43287</v>
       </c>
       <c r="E147" s="1">
-        <v>43317</v>
+        <v>43378</v>
       </c>
       <c r="F147" t="s">
         <v>34</v>
@@ -13903,7 +13903,7 @@
         <v>43287</v>
       </c>
       <c r="E148" s="1">
-        <v>43317</v>
+        <v>43378</v>
       </c>
       <c r="F148" t="s">
         <v>34</v>
@@ -13980,7 +13980,7 @@
         <v>43287</v>
       </c>
       <c r="E149" s="1">
-        <v>43317</v>
+        <v>43378</v>
       </c>
       <c r="F149" t="s">
         <v>34</v>
@@ -14057,7 +14057,7 @@
         <v>43287</v>
       </c>
       <c r="E150" s="1">
-        <v>43317</v>
+        <v>43378</v>
       </c>
       <c r="F150" t="s">
         <v>34</v>
@@ -14134,7 +14134,7 @@
         <v>43287</v>
       </c>
       <c r="E151" s="1">
-        <v>43317</v>
+        <v>43378</v>
       </c>
       <c r="F151" t="s">
         <v>34</v>
@@ -14211,7 +14211,7 @@
         <v>43287</v>
       </c>
       <c r="E152" s="1">
-        <v>43317</v>
+        <v>43378</v>
       </c>
       <c r="F152" t="s">
         <v>34</v>
@@ -14288,7 +14288,7 @@
         <v>43287</v>
       </c>
       <c r="E153" s="1">
-        <v>43317</v>
+        <v>43378</v>
       </c>
       <c r="F153" t="s">
         <v>34</v>
@@ -14365,7 +14365,7 @@
         <v>43287</v>
       </c>
       <c r="E154" s="1">
-        <v>43317</v>
+        <v>43378</v>
       </c>
       <c r="F154" t="s">
         <v>34</v>
@@ -14442,7 +14442,7 @@
         <v>43287</v>
       </c>
       <c r="E155" s="1">
-        <v>43317</v>
+        <v>43378</v>
       </c>
       <c r="F155" t="s">
         <v>34</v>
@@ -14519,7 +14519,7 @@
         <v>43287</v>
       </c>
       <c r="E156" s="1">
-        <v>43317</v>
+        <v>43378</v>
       </c>
       <c r="F156" t="s">
         <v>34</v>
@@ -14596,7 +14596,7 @@
         <v>43287</v>
       </c>
       <c r="E157" s="1">
-        <v>43317</v>
+        <v>43378</v>
       </c>
       <c r="F157" t="s">
         <v>34</v>
@@ -14673,7 +14673,7 @@
         <v>43297</v>
       </c>
       <c r="E158" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F158" t="s">
         <v>34</v>
@@ -14750,7 +14750,7 @@
         <v>43298</v>
       </c>
       <c r="E159" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F159" t="s">
         <v>34</v>
@@ -14827,7 +14827,7 @@
         <v>43298</v>
       </c>
       <c r="E160" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F160" t="s">
         <v>34</v>
@@ -14904,7 +14904,7 @@
         <v>43298</v>
       </c>
       <c r="E161" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F161" t="s">
         <v>34</v>
@@ -14981,7 +14981,7 @@
         <v>43298</v>
       </c>
       <c r="E162" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F162" t="s">
         <v>34</v>
@@ -15058,7 +15058,7 @@
         <v>43298</v>
       </c>
       <c r="E163" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F163" t="s">
         <v>34</v>
@@ -15135,7 +15135,7 @@
         <v>43298</v>
       </c>
       <c r="E164" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F164" t="s">
         <v>34</v>
@@ -15212,7 +15212,7 @@
         <v>43298</v>
       </c>
       <c r="E165" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F165" t="s">
         <v>34</v>
@@ -15289,7 +15289,7 @@
         <v>43298</v>
       </c>
       <c r="E166" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F166" t="s">
         <v>34</v>
@@ -15366,7 +15366,7 @@
         <v>43298</v>
       </c>
       <c r="E167" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F167" t="s">
         <v>34</v>
@@ -15443,7 +15443,7 @@
         <v>43298</v>
       </c>
       <c r="E168" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F168" t="s">
         <v>34</v>
@@ -15520,7 +15520,7 @@
         <v>43298</v>
       </c>
       <c r="E169" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F169" t="s">
         <v>34</v>
@@ -15597,7 +15597,7 @@
         <v>43298</v>
       </c>
       <c r="E170" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F170" t="s">
         <v>34</v>
@@ -15674,7 +15674,7 @@
         <v>43298</v>
       </c>
       <c r="E171" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F171" t="s">
         <v>34</v>
@@ -15751,7 +15751,7 @@
         <v>43298</v>
       </c>
       <c r="E172" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F172" t="s">
         <v>34</v>
@@ -15828,7 +15828,7 @@
         <v>43298</v>
       </c>
       <c r="E173" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F173" t="s">
         <v>34</v>
@@ -15905,7 +15905,7 @@
         <v>43298</v>
       </c>
       <c r="E174" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F174" t="s">
         <v>34</v>
@@ -15982,7 +15982,7 @@
         <v>43298</v>
       </c>
       <c r="E175" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F175" t="s">
         <v>34</v>
@@ -16059,7 +16059,7 @@
         <v>43298</v>
       </c>
       <c r="E176" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F176" t="s">
         <v>34</v>
@@ -16136,7 +16136,7 @@
         <v>43298</v>
       </c>
       <c r="E177" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F177" t="s">
         <v>34</v>
@@ -16213,7 +16213,7 @@
         <v>43298</v>
       </c>
       <c r="E178" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F178" t="s">
         <v>34</v>
@@ -16290,7 +16290,7 @@
         <v>43298</v>
       </c>
       <c r="E179" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F179" t="s">
         <v>34</v>
@@ -16367,7 +16367,7 @@
         <v>43298</v>
       </c>
       <c r="E180" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F180" t="s">
         <v>34</v>
@@ -16444,7 +16444,7 @@
         <v>43298</v>
       </c>
       <c r="E181" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F181" t="s">
         <v>34</v>
@@ -16521,7 +16521,7 @@
         <v>43298</v>
       </c>
       <c r="E182" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F182" t="s">
         <v>34</v>
@@ -16598,7 +16598,7 @@
         <v>43298</v>
       </c>
       <c r="E183" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F183" t="s">
         <v>34</v>
@@ -16675,7 +16675,7 @@
         <v>43298</v>
       </c>
       <c r="E184" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F184" t="s">
         <v>34</v>
@@ -16752,7 +16752,7 @@
         <v>43299</v>
       </c>
       <c r="E185" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F185" t="s">
         <v>34</v>
@@ -16829,7 +16829,7 @@
         <v>43299</v>
       </c>
       <c r="E186" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F186" t="s">
         <v>34</v>
@@ -16906,7 +16906,7 @@
         <v>43299</v>
       </c>
       <c r="E187" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F187" t="s">
         <v>34</v>
@@ -16983,7 +16983,7 @@
         <v>43299</v>
       </c>
       <c r="E188" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F188" t="s">
         <v>34</v>
@@ -17060,7 +17060,7 @@
         <v>43299</v>
       </c>
       <c r="E189" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F189" t="s">
         <v>34</v>
@@ -17137,7 +17137,7 @@
         <v>43299</v>
       </c>
       <c r="E190" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F190" t="s">
         <v>34</v>
@@ -17214,7 +17214,7 @@
         <v>43299</v>
       </c>
       <c r="E191" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F191" t="s">
         <v>34</v>
@@ -17291,7 +17291,7 @@
         <v>43299</v>
       </c>
       <c r="E192" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F192" t="s">
         <v>34</v>
@@ -17368,7 +17368,7 @@
         <v>43299</v>
       </c>
       <c r="E193" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F193" t="s">
         <v>34</v>
@@ -17445,7 +17445,7 @@
         <v>43299</v>
       </c>
       <c r="E194" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F194" t="s">
         <v>34</v>
@@ -17522,7 +17522,7 @@
         <v>43299</v>
       </c>
       <c r="E195" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F195" t="s">
         <v>34</v>
@@ -17599,7 +17599,7 @@
         <v>43299</v>
       </c>
       <c r="E196" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F196" t="s">
         <v>34</v>
@@ -17676,7 +17676,7 @@
         <v>43299</v>
       </c>
       <c r="E197" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F197" t="s">
         <v>34</v>
@@ -17753,7 +17753,7 @@
         <v>43299</v>
       </c>
       <c r="E198" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F198" t="s">
         <v>34</v>
@@ -17830,7 +17830,7 @@
         <v>43299</v>
       </c>
       <c r="E199" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F199" t="s">
         <v>34</v>
@@ -17907,7 +17907,7 @@
         <v>43299</v>
       </c>
       <c r="E200" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F200" t="s">
         <v>34</v>
@@ -17984,7 +17984,7 @@
         <v>43299</v>
       </c>
       <c r="E201" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F201" t="s">
         <v>34</v>
@@ -18061,7 +18061,7 @@
         <v>43299</v>
       </c>
       <c r="E202" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F202" t="s">
         <v>34</v>
@@ -18138,7 +18138,7 @@
         <v>43299</v>
       </c>
       <c r="E203" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F203" t="s">
         <v>34</v>
@@ -18215,7 +18215,7 @@
         <v>43299</v>
       </c>
       <c r="E204" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F204" t="s">
         <v>34</v>
@@ -18292,7 +18292,7 @@
         <v>43299</v>
       </c>
       <c r="E205" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F205" t="s">
         <v>34</v>
@@ -18369,7 +18369,7 @@
         <v>43299</v>
       </c>
       <c r="E206" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F206" t="s">
         <v>34</v>
@@ -18446,7 +18446,7 @@
         <v>43299</v>
       </c>
       <c r="E207" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F207" t="s">
         <v>34</v>
@@ -18523,7 +18523,7 @@
         <v>43299</v>
       </c>
       <c r="E208" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F208" t="s">
         <v>34</v>
@@ -18600,7 +18600,7 @@
         <v>43299</v>
       </c>
       <c r="E209" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F209" t="s">
         <v>34</v>
@@ -18677,7 +18677,7 @@
         <v>43299</v>
       </c>
       <c r="E210" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F210" t="s">
         <v>34</v>
@@ -18754,7 +18754,7 @@
         <v>43299</v>
       </c>
       <c r="E211" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F211" t="s">
         <v>34</v>
@@ -18831,7 +18831,7 @@
         <v>43299</v>
       </c>
       <c r="E212" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F212" t="s">
         <v>34</v>
@@ -18908,7 +18908,7 @@
         <v>43299</v>
       </c>
       <c r="E213" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F213" t="s">
         <v>34</v>
@@ -18985,7 +18985,7 @@
         <v>43299</v>
       </c>
       <c r="E214" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F214" t="s">
         <v>34</v>
@@ -19062,7 +19062,7 @@
         <v>43299</v>
       </c>
       <c r="E215" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F215" t="s">
         <v>34</v>
@@ -19139,7 +19139,7 @@
         <v>43299</v>
       </c>
       <c r="E216" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F216" t="s">
         <v>34</v>
@@ -19216,7 +19216,7 @@
         <v>43299</v>
       </c>
       <c r="E217" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F217" t="s">
         <v>34</v>
@@ -19293,7 +19293,7 @@
         <v>43299</v>
       </c>
       <c r="E218" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F218" t="s">
         <v>34</v>
@@ -19370,7 +19370,7 @@
         <v>43299</v>
       </c>
       <c r="E219" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F219" t="s">
         <v>34</v>
@@ -19447,7 +19447,7 @@
         <v>43299</v>
       </c>
       <c r="E220" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F220" t="s">
         <v>34</v>
@@ -19524,7 +19524,7 @@
         <v>43299</v>
       </c>
       <c r="E221" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F221" t="s">
         <v>34</v>
@@ -19601,7 +19601,7 @@
         <v>43299</v>
       </c>
       <c r="E222" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F222" t="s">
         <v>34</v>
@@ -19678,7 +19678,7 @@
         <v>43299</v>
       </c>
       <c r="E223" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F223" t="s">
         <v>34</v>
@@ -19755,7 +19755,7 @@
         <v>43299</v>
       </c>
       <c r="E224" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F224" t="s">
         <v>34</v>
@@ -19832,7 +19832,7 @@
         <v>43299</v>
       </c>
       <c r="E225" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F225" t="s">
         <v>34</v>
@@ -19909,7 +19909,7 @@
         <v>43299</v>
       </c>
       <c r="E226" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F226" t="s">
         <v>34</v>
@@ -19986,7 +19986,7 @@
         <v>43299</v>
       </c>
       <c r="E227" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F227" t="s">
         <v>34</v>
@@ -20063,7 +20063,7 @@
         <v>43299</v>
       </c>
       <c r="E228" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F228" t="s">
         <v>34</v>
@@ -20140,7 +20140,7 @@
         <v>43299</v>
       </c>
       <c r="E229" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F229" t="s">
         <v>34</v>
@@ -20217,7 +20217,7 @@
         <v>43299</v>
       </c>
       <c r="E230" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F230" t="s">
         <v>34</v>
@@ -20294,7 +20294,7 @@
         <v>43299</v>
       </c>
       <c r="E231" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F231" t="s">
         <v>34</v>
@@ -20371,7 +20371,7 @@
         <v>43299</v>
       </c>
       <c r="E232" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F232" t="s">
         <v>34</v>
@@ -20448,7 +20448,7 @@
         <v>43299</v>
       </c>
       <c r="E233" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F233" t="s">
         <v>34</v>
@@ -20525,7 +20525,7 @@
         <v>43299</v>
       </c>
       <c r="E234" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F234" t="s">
         <v>34</v>
@@ -20602,7 +20602,7 @@
         <v>43299</v>
       </c>
       <c r="E235" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F235" t="s">
         <v>34</v>
@@ -20679,7 +20679,7 @@
         <v>43299</v>
       </c>
       <c r="E236" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F236" t="s">
         <v>34</v>
@@ -20756,7 +20756,7 @@
         <v>43300</v>
       </c>
       <c r="E237" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F237" t="s">
         <v>34</v>
@@ -20833,7 +20833,7 @@
         <v>43300</v>
       </c>
       <c r="E238" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F238" t="s">
         <v>34</v>
@@ -20910,7 +20910,7 @@
         <v>43300</v>
       </c>
       <c r="E239" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F239" t="s">
         <v>34</v>
@@ -20987,7 +20987,7 @@
         <v>43300</v>
       </c>
       <c r="E240" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F240" t="s">
         <v>34</v>
@@ -21064,7 +21064,7 @@
         <v>43300</v>
       </c>
       <c r="E241" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F241" t="s">
         <v>34</v>
@@ -21141,7 +21141,7 @@
         <v>43300</v>
       </c>
       <c r="E242" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F242" t="s">
         <v>34</v>
@@ -21218,7 +21218,7 @@
         <v>43300</v>
       </c>
       <c r="E243" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F243" t="s">
         <v>34</v>
@@ -21295,7 +21295,7 @@
         <v>43300</v>
       </c>
       <c r="E244" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F244" t="s">
         <v>34</v>
@@ -21372,7 +21372,7 @@
         <v>43300</v>
       </c>
       <c r="E245" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F245" t="s">
         <v>34</v>
@@ -21449,7 +21449,7 @@
         <v>43300</v>
       </c>
       <c r="E246" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F246" t="s">
         <v>34</v>
@@ -21526,7 +21526,7 @@
         <v>43300</v>
       </c>
       <c r="E247" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F247" t="s">
         <v>34</v>
@@ -21603,7 +21603,7 @@
         <v>43300</v>
       </c>
       <c r="E248" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F248" t="s">
         <v>34</v>
@@ -21680,7 +21680,7 @@
         <v>43300</v>
       </c>
       <c r="E249" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F249" t="s">
         <v>34</v>
@@ -21757,7 +21757,7 @@
         <v>43300</v>
       </c>
       <c r="E250" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F250" t="s">
         <v>34</v>
@@ -21834,7 +21834,7 @@
         <v>43300</v>
       </c>
       <c r="E251" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F251" t="s">
         <v>34</v>
@@ -21911,7 +21911,7 @@
         <v>43300</v>
       </c>
       <c r="E252" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F252" t="s">
         <v>34</v>
@@ -21988,7 +21988,7 @@
         <v>43300</v>
       </c>
       <c r="E253" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F253" t="s">
         <v>34</v>
@@ -22065,7 +22065,7 @@
         <v>43300</v>
       </c>
       <c r="E254" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F254" t="s">
         <v>34</v>
@@ -22142,7 +22142,7 @@
         <v>43300</v>
       </c>
       <c r="E255" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F255" t="s">
         <v>34</v>
@@ -22219,7 +22219,7 @@
         <v>43300</v>
       </c>
       <c r="E256" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F256" t="s">
         <v>34</v>
@@ -22296,7 +22296,7 @@
         <v>43300</v>
       </c>
       <c r="E257" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F257" t="s">
         <v>34</v>
@@ -22373,7 +22373,7 @@
         <v>43300</v>
       </c>
       <c r="E258" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F258" t="s">
         <v>34</v>
@@ -22450,7 +22450,7 @@
         <v>43300</v>
       </c>
       <c r="E259" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F259" t="s">
         <v>34</v>
@@ -22527,7 +22527,7 @@
         <v>43300</v>
       </c>
       <c r="E260" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F260" t="s">
         <v>34</v>
@@ -22604,7 +22604,7 @@
         <v>43300</v>
       </c>
       <c r="E261" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F261" t="s">
         <v>34</v>
@@ -22681,7 +22681,7 @@
         <v>43300</v>
       </c>
       <c r="E262" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F262" t="s">
         <v>34</v>
@@ -22758,7 +22758,7 @@
         <v>43300</v>
       </c>
       <c r="E263" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F263" t="s">
         <v>34</v>
@@ -22835,7 +22835,7 @@
         <v>43300</v>
       </c>
       <c r="E264" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F264" t="s">
         <v>34</v>
@@ -22912,7 +22912,7 @@
         <v>43300</v>
       </c>
       <c r="E265" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F265" t="s">
         <v>34</v>
@@ -22989,7 +22989,7 @@
         <v>43300</v>
       </c>
       <c r="E266" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F266" t="s">
         <v>34</v>
@@ -23066,7 +23066,7 @@
         <v>43300</v>
       </c>
       <c r="E267" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F267" t="s">
         <v>34</v>
@@ -23143,7 +23143,7 @@
         <v>43300</v>
       </c>
       <c r="E268" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F268" t="s">
         <v>34</v>
@@ -23220,7 +23220,7 @@
         <v>43300</v>
       </c>
       <c r="E269" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F269" t="s">
         <v>34</v>
@@ -23297,7 +23297,7 @@
         <v>43300</v>
       </c>
       <c r="E270" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F270" t="s">
         <v>34</v>
@@ -23374,7 +23374,7 @@
         <v>43300</v>
       </c>
       <c r="E271" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F271" t="s">
         <v>34</v>
@@ -23451,7 +23451,7 @@
         <v>43300</v>
       </c>
       <c r="E272" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F272" t="s">
         <v>34</v>
@@ -23528,7 +23528,7 @@
         <v>43300</v>
       </c>
       <c r="E273" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F273" t="s">
         <v>34</v>
@@ -23605,7 +23605,7 @@
         <v>43300</v>
       </c>
       <c r="E274" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F274" t="s">
         <v>34</v>
@@ -23682,7 +23682,7 @@
         <v>43300</v>
       </c>
       <c r="E275" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F275" t="s">
         <v>34</v>
@@ -23759,7 +23759,7 @@
         <v>43300</v>
       </c>
       <c r="E276" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F276" t="s">
         <v>34</v>
@@ -23836,7 +23836,7 @@
         <v>43300</v>
       </c>
       <c r="E277" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F277" t="s">
         <v>34</v>
@@ -23913,7 +23913,7 @@
         <v>43300</v>
       </c>
       <c r="E278" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F278" t="s">
         <v>34</v>
@@ -23990,7 +23990,7 @@
         <v>43300</v>
       </c>
       <c r="E279" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F279" t="s">
         <v>34</v>
@@ -24067,7 +24067,7 @@
         <v>43300</v>
       </c>
       <c r="E280" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F280" t="s">
         <v>34</v>
@@ -24144,7 +24144,7 @@
         <v>43300</v>
       </c>
       <c r="E281" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F281" t="s">
         <v>34</v>
@@ -24221,7 +24221,7 @@
         <v>43300</v>
       </c>
       <c r="E282" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F282" t="s">
         <v>34</v>
@@ -24298,7 +24298,7 @@
         <v>43300</v>
       </c>
       <c r="E283" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F283" t="s">
         <v>34</v>
@@ -24375,7 +24375,7 @@
         <v>43300</v>
       </c>
       <c r="E284" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F284" t="s">
         <v>34</v>
@@ -24452,7 +24452,7 @@
         <v>43300</v>
       </c>
       <c r="E285" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F285" t="s">
         <v>34</v>
@@ -24529,7 +24529,7 @@
         <v>43300</v>
       </c>
       <c r="E286" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F286" t="s">
         <v>34</v>
@@ -24606,7 +24606,7 @@
         <v>43300</v>
       </c>
       <c r="E287" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F287" t="s">
         <v>34</v>
@@ -24683,7 +24683,7 @@
         <v>43300</v>
       </c>
       <c r="E288" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F288" t="s">
         <v>34</v>
@@ -24760,7 +24760,7 @@
         <v>43300</v>
       </c>
       <c r="E289" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F289" t="s">
         <v>34</v>
@@ -24837,7 +24837,7 @@
         <v>43300</v>
       </c>
       <c r="E290" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F290" t="s">
         <v>34</v>
@@ -24914,7 +24914,7 @@
         <v>43300</v>
       </c>
       <c r="E291" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F291" t="s">
         <v>34</v>
@@ -24991,7 +24991,7 @@
         <v>43300</v>
       </c>
       <c r="E292" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F292" t="s">
         <v>34</v>
@@ -25068,7 +25068,7 @@
         <v>43301</v>
       </c>
       <c r="E293" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F293" t="s">
         <v>34</v>
@@ -25145,7 +25145,7 @@
         <v>43301</v>
       </c>
       <c r="E294" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F294" t="s">
         <v>34</v>
@@ -25222,7 +25222,7 @@
         <v>43301</v>
       </c>
       <c r="E295" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F295" t="s">
         <v>34</v>
@@ -25299,7 +25299,7 @@
         <v>43301</v>
       </c>
       <c r="E296" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F296" t="s">
         <v>34</v>
@@ -25376,7 +25376,7 @@
         <v>43301</v>
       </c>
       <c r="E297" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F297" t="s">
         <v>34</v>
@@ -25453,7 +25453,7 @@
         <v>43301</v>
       </c>
       <c r="E298" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F298" t="s">
         <v>34</v>
@@ -25530,7 +25530,7 @@
         <v>43301</v>
       </c>
       <c r="E299" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F299" t="s">
         <v>34</v>
@@ -25607,7 +25607,7 @@
         <v>43301</v>
       </c>
       <c r="E300" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F300" t="s">
         <v>34</v>
@@ -25684,7 +25684,7 @@
         <v>43301</v>
       </c>
       <c r="E301" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F301" t="s">
         <v>34</v>
@@ -25761,7 +25761,7 @@
         <v>43301</v>
       </c>
       <c r="E302" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F302" t="s">
         <v>34</v>
@@ -25838,7 +25838,7 @@
         <v>43301</v>
       </c>
       <c r="E303" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F303" t="s">
         <v>34</v>
@@ -25915,7 +25915,7 @@
         <v>43301</v>
       </c>
       <c r="E304" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F304" t="s">
         <v>34</v>
@@ -25992,7 +25992,7 @@
         <v>43301</v>
       </c>
       <c r="E305" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F305" t="s">
         <v>34</v>
@@ -26069,7 +26069,7 @@
         <v>43301</v>
       </c>
       <c r="E306" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F306" t="s">
         <v>34</v>
@@ -26146,7 +26146,7 @@
         <v>43301</v>
       </c>
       <c r="E307" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F307" t="s">
         <v>34</v>
@@ -26223,7 +26223,7 @@
         <v>43301</v>
       </c>
       <c r="E308" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F308" t="s">
         <v>34</v>
@@ -26300,7 +26300,7 @@
         <v>43301</v>
       </c>
       <c r="E309" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F309" t="s">
         <v>34</v>
@@ -26377,7 +26377,7 @@
         <v>43301</v>
       </c>
       <c r="E310" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F310" t="s">
         <v>34</v>
@@ -26454,7 +26454,7 @@
         <v>43301</v>
       </c>
       <c r="E311" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F311" t="s">
         <v>34</v>
@@ -26531,7 +26531,7 @@
         <v>43301</v>
       </c>
       <c r="E312" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F312" t="s">
         <v>34</v>
@@ -26608,7 +26608,7 @@
         <v>43301</v>
       </c>
       <c r="E313" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F313" t="s">
         <v>34</v>
@@ -26685,7 +26685,7 @@
         <v>43301</v>
       </c>
       <c r="E314" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F314" t="s">
         <v>34</v>
@@ -26762,7 +26762,7 @@
         <v>43301</v>
       </c>
       <c r="E315" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F315" t="s">
         <v>34</v>
@@ -26839,7 +26839,7 @@
         <v>43301</v>
       </c>
       <c r="E316" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F316" t="s">
         <v>34</v>
@@ -26916,7 +26916,7 @@
         <v>43301</v>
       </c>
       <c r="E317" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F317" t="s">
         <v>34</v>
@@ -26993,7 +26993,7 @@
         <v>43301</v>
       </c>
       <c r="E318" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F318" t="s">
         <v>34</v>
@@ -27070,7 +27070,7 @@
         <v>43301</v>
       </c>
       <c r="E319" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F319" t="s">
         <v>34</v>
@@ -27147,7 +27147,7 @@
         <v>43301</v>
       </c>
       <c r="E320" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F320" t="s">
         <v>34</v>
@@ -27224,7 +27224,7 @@
         <v>43301</v>
       </c>
       <c r="E321" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F321" t="s">
         <v>34</v>
@@ -27301,7 +27301,7 @@
         <v>43301</v>
       </c>
       <c r="E322" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F322" t="s">
         <v>34</v>
@@ -27378,7 +27378,7 @@
         <v>43301</v>
       </c>
       <c r="E323" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F323" t="s">
         <v>34</v>
@@ -27455,7 +27455,7 @@
         <v>43301</v>
       </c>
       <c r="E324" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F324" t="s">
         <v>34</v>
@@ -27532,7 +27532,7 @@
         <v>43301</v>
       </c>
       <c r="E325" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F325" t="s">
         <v>34</v>
@@ -27609,7 +27609,7 @@
         <v>43301</v>
       </c>
       <c r="E326" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F326" t="s">
         <v>34</v>
@@ -27686,7 +27686,7 @@
         <v>43301</v>
       </c>
       <c r="E327" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F327" t="s">
         <v>34</v>
@@ -27763,7 +27763,7 @@
         <v>43301</v>
       </c>
       <c r="E328" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F328" t="s">
         <v>34</v>
@@ -27840,7 +27840,7 @@
         <v>43301</v>
       </c>
       <c r="E329" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F329" t="s">
         <v>34</v>
@@ -27917,7 +27917,7 @@
         <v>43301</v>
       </c>
       <c r="E330" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F330" t="s">
         <v>34</v>
@@ -27994,7 +27994,7 @@
         <v>43301</v>
       </c>
       <c r="E331" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F331" t="s">
         <v>34</v>
@@ -28071,7 +28071,7 @@
         <v>43301</v>
       </c>
       <c r="E332" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F332" t="s">
         <v>34</v>
@@ -28148,7 +28148,7 @@
         <v>43301</v>
       </c>
       <c r="E333" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F333" t="s">
         <v>34</v>
@@ -28225,7 +28225,7 @@
         <v>43301</v>
       </c>
       <c r="E334" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F334" t="s">
         <v>34</v>
@@ -28302,7 +28302,7 @@
         <v>43301</v>
       </c>
       <c r="E335" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F335" t="s">
         <v>34</v>
@@ -28379,7 +28379,7 @@
         <v>43301</v>
       </c>
       <c r="E336" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F336" t="s">
         <v>34</v>
@@ -28456,7 +28456,7 @@
         <v>43301</v>
       </c>
       <c r="E337" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F337" t="s">
         <v>34</v>
@@ -28533,7 +28533,7 @@
         <v>43301</v>
       </c>
       <c r="E338" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F338" t="s">
         <v>34</v>
@@ -28610,7 +28610,7 @@
         <v>43301</v>
       </c>
       <c r="E339" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F339" t="s">
         <v>34</v>
@@ -28687,7 +28687,7 @@
         <v>43301</v>
       </c>
       <c r="E340" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F340" t="s">
         <v>34</v>
@@ -28764,7 +28764,7 @@
         <v>43301</v>
       </c>
       <c r="E341" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F341" t="s">
         <v>34</v>
@@ -28841,7 +28841,7 @@
         <v>43301</v>
       </c>
       <c r="E342" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F342" t="s">
         <v>34</v>
@@ -28918,7 +28918,7 @@
         <v>43301</v>
       </c>
       <c r="E343" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F343" t="s">
         <v>34</v>
@@ -28995,7 +28995,7 @@
         <v>43301</v>
       </c>
       <c r="E344" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F344" t="s">
         <v>34</v>
@@ -29072,7 +29072,7 @@
         <v>43301</v>
       </c>
       <c r="E345" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F345" t="s">
         <v>34</v>
@@ -29149,7 +29149,7 @@
         <v>43301</v>
       </c>
       <c r="E346" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F346" t="s">
         <v>34</v>
@@ -29226,7 +29226,7 @@
         <v>43301</v>
       </c>
       <c r="E347" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F347" t="s">
         <v>34</v>
@@ -29303,7 +29303,7 @@
         <v>43301</v>
       </c>
       <c r="E348" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F348" t="s">
         <v>34</v>
@@ -29380,7 +29380,7 @@
         <v>43301</v>
       </c>
       <c r="E349" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F349" t="s">
         <v>34</v>
@@ -29457,7 +29457,7 @@
         <v>43301</v>
       </c>
       <c r="E350" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F350" t="s">
         <v>34</v>
@@ -29534,7 +29534,7 @@
         <v>43303</v>
       </c>
       <c r="E351" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F351" t="s">
         <v>34</v>
@@ -29611,7 +29611,7 @@
         <v>43303</v>
       </c>
       <c r="E352" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F352" t="s">
         <v>34</v>
@@ -29688,7 +29688,7 @@
         <v>43303</v>
       </c>
       <c r="E353" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F353" t="s">
         <v>34</v>
@@ -29765,7 +29765,7 @@
         <v>43303</v>
       </c>
       <c r="E354" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F354" t="s">
         <v>34</v>
@@ -29842,7 +29842,7 @@
         <v>43303</v>
       </c>
       <c r="E355" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F355" t="s">
         <v>34</v>
@@ -29919,7 +29919,7 @@
         <v>43303</v>
       </c>
       <c r="E356" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F356" t="s">
         <v>34</v>
@@ -29996,7 +29996,7 @@
         <v>43303</v>
       </c>
       <c r="E357" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F357" t="s">
         <v>34</v>
@@ -30073,7 +30073,7 @@
         <v>43303</v>
       </c>
       <c r="E358" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F358" t="s">
         <v>34</v>
@@ -30150,7 +30150,7 @@
         <v>43303</v>
       </c>
       <c r="E359" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F359" t="s">
         <v>34</v>
@@ -30227,7 +30227,7 @@
         <v>43303</v>
       </c>
       <c r="E360" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F360" t="s">
         <v>34</v>
@@ -30304,7 +30304,7 @@
         <v>43303</v>
       </c>
       <c r="E361" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F361" t="s">
         <v>34</v>
@@ -30381,7 +30381,7 @@
         <v>43303</v>
       </c>
       <c r="E362" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F362" t="s">
         <v>34</v>
@@ -30458,7 +30458,7 @@
         <v>43303</v>
       </c>
       <c r="E363" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F363" t="s">
         <v>34</v>
@@ -30535,7 +30535,7 @@
         <v>43303</v>
       </c>
       <c r="E364" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F364" t="s">
         <v>34</v>
@@ -30612,7 +30612,7 @@
         <v>43303</v>
       </c>
       <c r="E365" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F365" t="s">
         <v>34</v>
@@ -30689,7 +30689,7 @@
         <v>43304</v>
       </c>
       <c r="E366" s="1">
-        <v>43315</v>
+        <v>43376</v>
       </c>
       <c r="F366" t="s">
         <v>34</v>
@@ -30766,7 +30766,7 @@
         <v>43304</v>
       </c>
       <c r="E367" s="1">
-        <v>43315</v>
+        <v>43376</v>
       </c>
       <c r="F367" t="s">
         <v>34</v>
@@ -30843,7 +30843,7 @@
         <v>43304</v>
       </c>
       <c r="E368" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F368" t="s">
         <v>34</v>
@@ -30920,7 +30920,7 @@
         <v>43304</v>
       </c>
       <c r="E369" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F369" t="s">
         <v>34</v>
@@ -30997,7 +30997,7 @@
         <v>43304</v>
       </c>
       <c r="E370" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F370" t="s">
         <v>34</v>
@@ -31074,7 +31074,7 @@
         <v>43304</v>
       </c>
       <c r="E371" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F371" t="s">
         <v>34</v>
@@ -31151,7 +31151,7 @@
         <v>43304</v>
       </c>
       <c r="E372" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F372" t="s">
         <v>34</v>
@@ -31228,7 +31228,7 @@
         <v>43304</v>
       </c>
       <c r="E373" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F373" t="s">
         <v>34</v>
@@ -31305,7 +31305,7 @@
         <v>43304</v>
       </c>
       <c r="E374" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F374" t="s">
         <v>34</v>
@@ -31382,7 +31382,7 @@
         <v>43304</v>
       </c>
       <c r="E375" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F375" t="s">
         <v>34</v>
@@ -31459,7 +31459,7 @@
         <v>43304</v>
       </c>
       <c r="E376" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F376" t="s">
         <v>34</v>
@@ -31536,7 +31536,7 @@
         <v>43304</v>
       </c>
       <c r="E377" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F377" t="s">
         <v>34</v>
@@ -31613,7 +31613,7 @@
         <v>43304</v>
       </c>
       <c r="E378" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F378" t="s">
         <v>34</v>
@@ -31690,7 +31690,7 @@
         <v>43304</v>
       </c>
       <c r="E379" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F379" t="s">
         <v>34</v>
@@ -31767,7 +31767,7 @@
         <v>43304</v>
       </c>
       <c r="E380" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F380" t="s">
         <v>34</v>
@@ -31844,7 +31844,7 @@
         <v>43304</v>
       </c>
       <c r="E381" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F381" t="s">
         <v>34</v>
@@ -31921,7 +31921,7 @@
         <v>43304</v>
       </c>
       <c r="E382" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F382" t="s">
         <v>34</v>
@@ -31998,7 +31998,7 @@
         <v>43304</v>
       </c>
       <c r="E383" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F383" t="s">
         <v>34</v>
@@ -32075,7 +32075,7 @@
         <v>43304</v>
       </c>
       <c r="E384" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F384" t="s">
         <v>34</v>
@@ -32152,7 +32152,7 @@
         <v>43304</v>
       </c>
       <c r="E385" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F385" t="s">
         <v>34</v>
@@ -32229,7 +32229,7 @@
         <v>43304</v>
       </c>
       <c r="E386" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F386" t="s">
         <v>34</v>
@@ -32306,7 +32306,7 @@
         <v>43304</v>
       </c>
       <c r="E387" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F387" t="s">
         <v>34</v>
@@ -32383,7 +32383,7 @@
         <v>43304</v>
       </c>
       <c r="E388" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F388" t="s">
         <v>34</v>
@@ -32460,7 +32460,7 @@
         <v>43304</v>
       </c>
       <c r="E389" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F389" t="s">
         <v>34</v>
@@ -32537,7 +32537,7 @@
         <v>43304</v>
       </c>
       <c r="E390" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F390" t="s">
         <v>34</v>
@@ -32614,7 +32614,7 @@
         <v>43304</v>
       </c>
       <c r="E391" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F391" t="s">
         <v>34</v>
@@ -32691,7 +32691,7 @@
         <v>43304</v>
       </c>
       <c r="E392" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F392" t="s">
         <v>34</v>
@@ -32768,7 +32768,7 @@
         <v>43304</v>
       </c>
       <c r="E393" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F393" t="s">
         <v>34</v>
@@ -32845,7 +32845,7 @@
         <v>43304</v>
       </c>
       <c r="E394" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F394" t="s">
         <v>34</v>
@@ -32922,7 +32922,7 @@
         <v>43304</v>
       </c>
       <c r="E395" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F395" t="s">
         <v>34</v>
@@ -32999,7 +32999,7 @@
         <v>43304</v>
       </c>
       <c r="E396" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F396" t="s">
         <v>34</v>
@@ -33076,7 +33076,7 @@
         <v>43304</v>
       </c>
       <c r="E397" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F397" t="s">
         <v>34</v>
@@ -33153,7 +33153,7 @@
         <v>43304</v>
       </c>
       <c r="E398" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F398" t="s">
         <v>34</v>
@@ -33230,7 +33230,7 @@
         <v>43304</v>
       </c>
       <c r="E399" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F399" t="s">
         <v>34</v>
@@ -33307,7 +33307,7 @@
         <v>43304</v>
       </c>
       <c r="E400" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F400" t="s">
         <v>34</v>
@@ -33384,7 +33384,7 @@
         <v>43304</v>
       </c>
       <c r="E401" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F401" t="s">
         <v>34</v>
@@ -33461,7 +33461,7 @@
         <v>43304</v>
       </c>
       <c r="E402" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F402" t="s">
         <v>34</v>
@@ -33538,7 +33538,7 @@
         <v>43304</v>
       </c>
       <c r="E403" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F403" t="s">
         <v>34</v>
@@ -33615,7 +33615,7 @@
         <v>43304</v>
       </c>
       <c r="E404" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F404" t="s">
         <v>34</v>
@@ -33692,7 +33692,7 @@
         <v>43304</v>
       </c>
       <c r="E405" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F405" t="s">
         <v>34</v>
@@ -33769,7 +33769,7 @@
         <v>43304</v>
       </c>
       <c r="E406" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F406" t="s">
         <v>34</v>
@@ -33846,7 +33846,7 @@
         <v>43304</v>
       </c>
       <c r="E407" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F407" t="s">
         <v>34</v>
@@ -33923,7 +33923,7 @@
         <v>43304</v>
       </c>
       <c r="E408" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F408" t="s">
         <v>34</v>
@@ -34000,7 +34000,7 @@
         <v>43304</v>
       </c>
       <c r="E409" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F409" t="s">
         <v>34</v>
@@ -34077,7 +34077,7 @@
         <v>43304</v>
       </c>
       <c r="E410" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F410" t="s">
         <v>34</v>
@@ -34154,7 +34154,7 @@
         <v>43304</v>
       </c>
       <c r="E411" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F411" t="s">
         <v>34</v>
@@ -34231,7 +34231,7 @@
         <v>43304</v>
       </c>
       <c r="E412" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F412" t="s">
         <v>34</v>
@@ -34308,7 +34308,7 @@
         <v>43304</v>
       </c>
       <c r="E413" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F413" t="s">
         <v>34</v>
@@ -34385,7 +34385,7 @@
         <v>43304</v>
       </c>
       <c r="E414" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F414" t="s">
         <v>34</v>
@@ -34462,7 +34462,7 @@
         <v>43304</v>
       </c>
       <c r="E415" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F415" t="s">
         <v>34</v>
@@ -34539,7 +34539,7 @@
         <v>43304</v>
       </c>
       <c r="E416" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F416" t="s">
         <v>34</v>
@@ -34616,7 +34616,7 @@
         <v>43304</v>
       </c>
       <c r="E417" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F417" t="s">
         <v>34</v>
@@ -34693,7 +34693,7 @@
         <v>43304</v>
       </c>
       <c r="E418" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F418" t="s">
         <v>34</v>
@@ -34770,7 +34770,7 @@
         <v>43304</v>
       </c>
       <c r="E419" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F419" t="s">
         <v>34</v>
@@ -34847,7 +34847,7 @@
         <v>43304</v>
       </c>
       <c r="E420" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F420" t="s">
         <v>34</v>
@@ -34924,7 +34924,7 @@
         <v>43304</v>
       </c>
       <c r="E421" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F421" t="s">
         <v>34</v>
@@ -35001,7 +35001,7 @@
         <v>43304</v>
       </c>
       <c r="E422" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F422" t="s">
         <v>34</v>
@@ -35078,7 +35078,7 @@
         <v>43304</v>
       </c>
       <c r="E423" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F423" t="s">
         <v>34</v>
@@ -35155,7 +35155,7 @@
         <v>43304</v>
       </c>
       <c r="E424" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F424" t="s">
         <v>34</v>
@@ -35232,7 +35232,7 @@
         <v>43304</v>
       </c>
       <c r="E425" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F425" t="s">
         <v>34</v>
@@ -35309,7 +35309,7 @@
         <v>43304</v>
       </c>
       <c r="E426" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F426" t="s">
         <v>34</v>
@@ -35386,7 +35386,7 @@
         <v>43304</v>
       </c>
       <c r="E427" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F427" t="s">
         <v>34</v>
@@ -35463,7 +35463,7 @@
         <v>43304</v>
       </c>
       <c r="E428" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F428" t="s">
         <v>34</v>
@@ -35540,7 +35540,7 @@
         <v>43304</v>
       </c>
       <c r="E429" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F429" t="s">
         <v>34</v>
@@ -35617,7 +35617,7 @@
         <v>43304</v>
       </c>
       <c r="E430" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F430" t="s">
         <v>34</v>
@@ -35694,7 +35694,7 @@
         <v>43304</v>
       </c>
       <c r="E431" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F431" t="s">
         <v>34</v>
@@ -35771,7 +35771,7 @@
         <v>43304</v>
       </c>
       <c r="E432" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F432" t="s">
         <v>34</v>
@@ -35848,7 +35848,7 @@
         <v>43304</v>
       </c>
       <c r="E433" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F433" t="s">
         <v>34</v>
@@ -35925,7 +35925,7 @@
         <v>43304</v>
       </c>
       <c r="E434" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F434" t="s">
         <v>34</v>
@@ -36002,7 +36002,7 @@
         <v>43304</v>
       </c>
       <c r="E435" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F435" t="s">
         <v>34</v>
@@ -36079,7 +36079,7 @@
         <v>43304</v>
       </c>
       <c r="E436" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F436" t="s">
         <v>34</v>
@@ -36156,7 +36156,7 @@
         <v>43304</v>
       </c>
       <c r="E437" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F437" t="s">
         <v>34</v>
@@ -36233,7 +36233,7 @@
         <v>43304</v>
       </c>
       <c r="E438" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F438" t="s">
         <v>34</v>
@@ -36310,7 +36310,7 @@
         <v>43304</v>
       </c>
       <c r="E439" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F439" t="s">
         <v>34</v>
@@ -36387,7 +36387,7 @@
         <v>43304</v>
       </c>
       <c r="E440" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F440" t="s">
         <v>34</v>
@@ -36464,7 +36464,7 @@
         <v>43304</v>
       </c>
       <c r="E441" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F441" t="s">
         <v>34</v>
@@ -36541,7 +36541,7 @@
         <v>43304</v>
       </c>
       <c r="E442" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F442" t="s">
         <v>34</v>
@@ -36618,7 +36618,7 @@
         <v>43304</v>
       </c>
       <c r="E443" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F443" t="s">
         <v>34</v>
@@ -36695,7 +36695,7 @@
         <v>43304</v>
       </c>
       <c r="E444" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F444" t="s">
         <v>34</v>
@@ -36772,7 +36772,7 @@
         <v>43304</v>
       </c>
       <c r="E445" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F445" t="s">
         <v>34</v>
@@ -36849,7 +36849,7 @@
         <v>43304</v>
       </c>
       <c r="E446" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F446" t="s">
         <v>34</v>
@@ -36926,7 +36926,7 @@
         <v>43304</v>
       </c>
       <c r="E447" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F447" t="s">
         <v>34</v>
@@ -37003,7 +37003,7 @@
         <v>43304</v>
       </c>
       <c r="E448" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F448" t="s">
         <v>34</v>
@@ -37080,7 +37080,7 @@
         <v>43304</v>
       </c>
       <c r="E449" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F449" t="s">
         <v>34</v>
@@ -37157,7 +37157,7 @@
         <v>43304</v>
       </c>
       <c r="E450" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F450" t="s">
         <v>34</v>
@@ -37234,7 +37234,7 @@
         <v>43304</v>
       </c>
       <c r="E451" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F451" t="s">
         <v>34</v>
@@ -37311,7 +37311,7 @@
         <v>43304</v>
       </c>
       <c r="E452" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F452" t="s">
         <v>34</v>
@@ -37388,7 +37388,7 @@
         <v>43304</v>
       </c>
       <c r="E453" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F453" t="s">
         <v>34</v>
@@ -37465,7 +37465,7 @@
         <v>43304</v>
       </c>
       <c r="E454" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F454" t="s">
         <v>34</v>
@@ -37542,7 +37542,7 @@
         <v>43304</v>
       </c>
       <c r="E455" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F455" t="s">
         <v>34</v>
@@ -37619,7 +37619,7 @@
         <v>43304</v>
       </c>
       <c r="E456" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F456" t="s">
         <v>34</v>
@@ -37696,7 +37696,7 @@
         <v>43304</v>
       </c>
       <c r="E457" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F457" t="s">
         <v>34</v>
@@ -37773,7 +37773,7 @@
         <v>43304</v>
       </c>
       <c r="E458" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F458" t="s">
         <v>34</v>
@@ -37850,7 +37850,7 @@
         <v>43304</v>
       </c>
       <c r="E459" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F459" t="s">
         <v>34</v>
@@ -37927,7 +37927,7 @@
         <v>43304</v>
       </c>
       <c r="E460" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F460" t="s">
         <v>34</v>
@@ -38004,7 +38004,7 @@
         <v>43304</v>
       </c>
       <c r="E461" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F461" t="s">
         <v>34</v>
@@ -38081,7 +38081,7 @@
         <v>43304</v>
       </c>
       <c r="E462" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F462" t="s">
         <v>34</v>
@@ -38158,7 +38158,7 @@
         <v>43304</v>
       </c>
       <c r="E463" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F463" t="s">
         <v>34</v>
@@ -38235,7 +38235,7 @@
         <v>43304</v>
       </c>
       <c r="E464" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F464" t="s">
         <v>34</v>
@@ -38312,7 +38312,7 @@
         <v>43304</v>
       </c>
       <c r="E465" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F465" t="s">
         <v>34</v>
@@ -38389,7 +38389,7 @@
         <v>43304</v>
       </c>
       <c r="E466" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F466" t="s">
         <v>34</v>
@@ -38466,7 +38466,7 @@
         <v>43304</v>
       </c>
       <c r="E467" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F467" t="s">
         <v>34</v>
@@ -38543,7 +38543,7 @@
         <v>43304</v>
       </c>
       <c r="E468" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F468" t="s">
         <v>34</v>
@@ -38620,7 +38620,7 @@
         <v>43304</v>
       </c>
       <c r="E469" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F469" t="s">
         <v>34</v>
@@ -38697,7 +38697,7 @@
         <v>43304</v>
       </c>
       <c r="E470" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F470" t="s">
         <v>34</v>
@@ -38774,7 +38774,7 @@
         <v>43304</v>
       </c>
       <c r="E471" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F471" t="s">
         <v>34</v>
@@ -38851,7 +38851,7 @@
         <v>43304</v>
       </c>
       <c r="E472" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F472" t="s">
         <v>34</v>
@@ -38928,7 +38928,7 @@
         <v>43304</v>
       </c>
       <c r="E473" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F473" t="s">
         <v>34</v>
@@ -39005,7 +39005,7 @@
         <v>43304</v>
       </c>
       <c r="E474" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F474" t="s">
         <v>34</v>
@@ -39082,7 +39082,7 @@
         <v>43304</v>
       </c>
       <c r="E475" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F475" t="s">
         <v>34</v>
@@ -39159,7 +39159,7 @@
         <v>43304</v>
       </c>
       <c r="E476" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F476" t="s">
         <v>34</v>
@@ -39236,7 +39236,7 @@
         <v>43304</v>
       </c>
       <c r="E477" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F477" t="s">
         <v>34</v>
@@ -39313,7 +39313,7 @@
         <v>43304</v>
       </c>
       <c r="E478" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F478" t="s">
         <v>34</v>
@@ -39390,7 +39390,7 @@
         <v>43304</v>
       </c>
       <c r="E479" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F479" t="s">
         <v>34</v>
@@ -39467,7 +39467,7 @@
         <v>43304</v>
       </c>
       <c r="E480" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F480" t="s">
         <v>34</v>
@@ -39544,7 +39544,7 @@
         <v>43304</v>
       </c>
       <c r="E481" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F481" t="s">
         <v>34</v>
@@ -39621,7 +39621,7 @@
         <v>43304</v>
       </c>
       <c r="E482" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F482" t="s">
         <v>34</v>
@@ -39698,7 +39698,7 @@
         <v>43304</v>
       </c>
       <c r="E483" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F483" t="s">
         <v>34</v>
@@ -39775,7 +39775,7 @@
         <v>43304</v>
       </c>
       <c r="E484" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F484" t="s">
         <v>34</v>
@@ -39852,7 +39852,7 @@
         <v>43304</v>
       </c>
       <c r="E485" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F485" t="s">
         <v>34</v>
@@ -39929,7 +39929,7 @@
         <v>43304</v>
       </c>
       <c r="E486" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F486" t="s">
         <v>34</v>
@@ -40006,7 +40006,7 @@
         <v>43304</v>
       </c>
       <c r="E487" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F487" t="s">
         <v>34</v>
@@ -40083,7 +40083,7 @@
         <v>43304</v>
       </c>
       <c r="E488" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F488" t="s">
         <v>34</v>
@@ -40160,7 +40160,7 @@
         <v>43304</v>
       </c>
       <c r="E489" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F489" t="s">
         <v>34</v>
@@ -40237,7 +40237,7 @@
         <v>43304</v>
       </c>
       <c r="E490" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F490" t="s">
         <v>34</v>
@@ -40314,7 +40314,7 @@
         <v>43304</v>
       </c>
       <c r="E491" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F491" t="s">
         <v>34</v>
@@ -40391,7 +40391,7 @@
         <v>43304</v>
       </c>
       <c r="E492" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F492" t="s">
         <v>34</v>
@@ -40468,7 +40468,7 @@
         <v>43304</v>
       </c>
       <c r="E493" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F493" t="s">
         <v>34</v>
@@ -40545,7 +40545,7 @@
         <v>43304</v>
       </c>
       <c r="E494" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F494" t="s">
         <v>34</v>
@@ -40622,7 +40622,7 @@
         <v>43304</v>
       </c>
       <c r="E495" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F495" t="s">
         <v>34</v>
@@ -40699,7 +40699,7 @@
         <v>43304</v>
       </c>
       <c r="E496" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F496" t="s">
         <v>34</v>
@@ -40776,7 +40776,7 @@
         <v>43304</v>
       </c>
       <c r="E497" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F497" t="s">
         <v>34</v>
@@ -40853,7 +40853,7 @@
         <v>43304</v>
       </c>
       <c r="E498" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F498" t="s">
         <v>34</v>
@@ -40930,7 +40930,7 @@
         <v>43304</v>
       </c>
       <c r="E499" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F499" t="s">
         <v>34</v>
@@ -41007,7 +41007,7 @@
         <v>43304</v>
       </c>
       <c r="E500" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F500" t="s">
         <v>34</v>
@@ -41084,7 +41084,7 @@
         <v>43304</v>
       </c>
       <c r="E501" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F501" t="s">
         <v>34</v>
@@ -41161,7 +41161,7 @@
         <v>43304</v>
       </c>
       <c r="E502" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F502" t="s">
         <v>34</v>
@@ -41238,7 +41238,7 @@
         <v>43304</v>
       </c>
       <c r="E503" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F503" t="s">
         <v>34</v>
@@ -41315,7 +41315,7 @@
         <v>43304</v>
       </c>
       <c r="E504" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F504" t="s">
         <v>34</v>
@@ -41392,7 +41392,7 @@
         <v>43304</v>
       </c>
       <c r="E505" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F505" t="s">
         <v>34</v>
@@ -41469,7 +41469,7 @@
         <v>43304</v>
       </c>
       <c r="E506" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F506" t="s">
         <v>34</v>
@@ -41546,7 +41546,7 @@
         <v>43304</v>
       </c>
       <c r="E507" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F507" t="s">
         <v>34</v>
@@ -41623,7 +41623,7 @@
         <v>43304</v>
       </c>
       <c r="E508" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F508" t="s">
         <v>34</v>
@@ -41700,7 +41700,7 @@
         <v>43304</v>
       </c>
       <c r="E509" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F509" t="s">
         <v>34</v>
@@ -41777,7 +41777,7 @@
         <v>43304</v>
       </c>
       <c r="E510" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F510" t="s">
         <v>34</v>
@@ -41854,7 +41854,7 @@
         <v>43304</v>
       </c>
       <c r="E511" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F511" t="s">
         <v>34</v>
@@ -41931,7 +41931,7 @@
         <v>43304</v>
       </c>
       <c r="E512" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F512" t="s">
         <v>34</v>
@@ -42008,7 +42008,7 @@
         <v>43304</v>
       </c>
       <c r="E513" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F513" t="s">
         <v>34</v>
@@ -42085,7 +42085,7 @@
         <v>43304</v>
       </c>
       <c r="E514" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F514" t="s">
         <v>34</v>
@@ -42162,7 +42162,7 @@
         <v>43304</v>
       </c>
       <c r="E515" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F515" t="s">
         <v>34</v>
@@ -42239,7 +42239,7 @@
         <v>43304</v>
       </c>
       <c r="E516" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F516" t="s">
         <v>34</v>
@@ -42316,7 +42316,7 @@
         <v>43304</v>
       </c>
       <c r="E517" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F517" t="s">
         <v>34</v>
@@ -42393,7 +42393,7 @@
         <v>43304</v>
       </c>
       <c r="E518" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F518" t="s">
         <v>34</v>
@@ -42470,7 +42470,7 @@
         <v>43304</v>
       </c>
       <c r="E519" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F519" t="s">
         <v>34</v>
@@ -42547,7 +42547,7 @@
         <v>43304</v>
       </c>
       <c r="E520" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F520" t="s">
         <v>34</v>
@@ -42624,7 +42624,7 @@
         <v>43304</v>
       </c>
       <c r="E521" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F521" t="s">
         <v>34</v>
@@ -42701,7 +42701,7 @@
         <v>43304</v>
       </c>
       <c r="E522" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F522" t="s">
         <v>34</v>
@@ -42778,7 +42778,7 @@
         <v>43304</v>
       </c>
       <c r="E523" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F523" t="s">
         <v>34</v>
@@ -42855,7 +42855,7 @@
         <v>43304</v>
       </c>
       <c r="E524" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F524" t="s">
         <v>34</v>
@@ -42932,7 +42932,7 @@
         <v>43304</v>
       </c>
       <c r="E525" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F525" t="s">
         <v>34</v>
@@ -43009,7 +43009,7 @@
         <v>43304</v>
       </c>
       <c r="E526" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F526" t="s">
         <v>34</v>
@@ -43086,7 +43086,7 @@
         <v>43304</v>
       </c>
       <c r="E527" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F527" t="s">
         <v>34</v>
@@ -43163,7 +43163,7 @@
         <v>43304</v>
       </c>
       <c r="E528" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F528" t="s">
         <v>34</v>
@@ -43240,7 +43240,7 @@
         <v>43304</v>
       </c>
       <c r="E529" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F529" t="s">
         <v>34</v>
@@ -43317,7 +43317,7 @@
         <v>43304</v>
       </c>
       <c r="E530" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F530" t="s">
         <v>34</v>
@@ -43394,7 +43394,7 @@
         <v>43304</v>
       </c>
       <c r="E531" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F531" t="s">
         <v>34</v>
@@ -43471,7 +43471,7 @@
         <v>43304</v>
       </c>
       <c r="E532" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F532" t="s">
         <v>34</v>
@@ -43548,7 +43548,7 @@
         <v>43304</v>
       </c>
       <c r="E533" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F533" t="s">
         <v>34</v>
@@ -43625,7 +43625,7 @@
         <v>43304</v>
       </c>
       <c r="E534" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F534" t="s">
         <v>34</v>
@@ -43702,7 +43702,7 @@
         <v>43304</v>
       </c>
       <c r="E535" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F535" t="s">
         <v>34</v>
@@ -43779,7 +43779,7 @@
         <v>43304</v>
       </c>
       <c r="E536" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F536" t="s">
         <v>34</v>
@@ -43856,7 +43856,7 @@
         <v>43304</v>
       </c>
       <c r="E537" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F537" t="s">
         <v>34</v>
@@ -43933,7 +43933,7 @@
         <v>43304</v>
       </c>
       <c r="E538" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F538" t="s">
         <v>34</v>
@@ -44010,7 +44010,7 @@
         <v>43304</v>
       </c>
       <c r="E539" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F539" t="s">
         <v>34</v>
@@ -44087,7 +44087,7 @@
         <v>43304</v>
       </c>
       <c r="E540" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F540" t="s">
         <v>34</v>
@@ -44164,7 +44164,7 @@
         <v>43304</v>
       </c>
       <c r="E541" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F541" t="s">
         <v>34</v>
@@ -44241,7 +44241,7 @@
         <v>43304</v>
       </c>
       <c r="E542" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F542" t="s">
         <v>34</v>
@@ -44318,7 +44318,7 @@
         <v>43304</v>
       </c>
       <c r="E543" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F543" t="s">
         <v>34</v>
@@ -44395,7 +44395,7 @@
         <v>43304</v>
       </c>
       <c r="E544" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F544" t="s">
         <v>34</v>
@@ -44472,7 +44472,7 @@
         <v>43304</v>
       </c>
       <c r="E545" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F545" t="s">
         <v>34</v>
@@ -44549,7 +44549,7 @@
         <v>43304</v>
       </c>
       <c r="E546" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F546" t="s">
         <v>34</v>
@@ -44626,7 +44626,7 @@
         <v>43304</v>
       </c>
       <c r="E547" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F547" t="s">
         <v>34</v>
@@ -44703,7 +44703,7 @@
         <v>43304</v>
       </c>
       <c r="E548" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F548" t="s">
         <v>34</v>
@@ -44780,7 +44780,7 @@
         <v>43304</v>
       </c>
       <c r="E549" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F549" t="s">
         <v>34</v>
@@ -44857,7 +44857,7 @@
         <v>43304</v>
       </c>
       <c r="E550" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F550" t="s">
         <v>34</v>
@@ -44934,7 +44934,7 @@
         <v>43304</v>
       </c>
       <c r="E551" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F551" t="s">
         <v>34</v>
@@ -45011,7 +45011,7 @@
         <v>43304</v>
       </c>
       <c r="E552" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F552" t="s">
         <v>34</v>
@@ -45088,7 +45088,7 @@
         <v>43304</v>
       </c>
       <c r="E553" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F553" t="s">
         <v>34</v>
@@ -45165,7 +45165,7 @@
         <v>43304</v>
       </c>
       <c r="E554" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F554" t="s">
         <v>34</v>
@@ -45242,7 +45242,7 @@
         <v>43304</v>
       </c>
       <c r="E555" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F555" t="s">
         <v>34</v>
@@ -45319,7 +45319,7 @@
         <v>43304</v>
       </c>
       <c r="E556" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F556" t="s">
         <v>34</v>
@@ -45396,7 +45396,7 @@
         <v>43304</v>
       </c>
       <c r="E557" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F557" t="s">
         <v>34</v>
@@ -45473,7 +45473,7 @@
         <v>43304</v>
       </c>
       <c r="E558" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F558" t="s">
         <v>34</v>
@@ -45550,7 +45550,7 @@
         <v>43304</v>
       </c>
       <c r="E559" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F559" t="s">
         <v>34</v>
@@ -45627,7 +45627,7 @@
         <v>43304</v>
       </c>
       <c r="E560" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F560" t="s">
         <v>34</v>
@@ -45704,7 +45704,7 @@
         <v>43304</v>
       </c>
       <c r="E561" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F561" t="s">
         <v>34</v>
@@ -45781,7 +45781,7 @@
         <v>43304</v>
       </c>
       <c r="E562" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F562" t="s">
         <v>34</v>
@@ -45858,7 +45858,7 @@
         <v>43304</v>
       </c>
       <c r="E563" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F563" t="s">
         <v>34</v>
@@ -45935,7 +45935,7 @@
         <v>43304</v>
       </c>
       <c r="E564" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F564" t="s">
         <v>34</v>
@@ -46012,7 +46012,7 @@
         <v>43304</v>
       </c>
       <c r="E565" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F565" t="s">
         <v>34</v>
@@ -46089,7 +46089,7 @@
         <v>43304</v>
       </c>
       <c r="E566" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F566" t="s">
         <v>34</v>
@@ -46166,7 +46166,7 @@
         <v>43304</v>
       </c>
       <c r="E567" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F567" t="s">
         <v>34</v>
@@ -46243,7 +46243,7 @@
         <v>43304</v>
       </c>
       <c r="E568" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F568" t="s">
         <v>34</v>
@@ -46320,7 +46320,7 @@
         <v>43304</v>
       </c>
       <c r="E569" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F569" t="s">
         <v>34</v>
@@ -46397,7 +46397,7 @@
         <v>43304</v>
       </c>
       <c r="E570" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F570" t="s">
         <v>34</v>
@@ -46474,7 +46474,7 @@
         <v>43304</v>
       </c>
       <c r="E571" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F571" t="s">
         <v>34</v>
@@ -46551,7 +46551,7 @@
         <v>43304</v>
       </c>
       <c r="E572" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F572" t="s">
         <v>34</v>
@@ -46628,7 +46628,7 @@
         <v>43304</v>
       </c>
       <c r="E573" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F573" t="s">
         <v>34</v>
@@ -46705,7 +46705,7 @@
         <v>43304</v>
       </c>
       <c r="E574" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F574" t="s">
         <v>34</v>
@@ -46782,7 +46782,7 @@
         <v>43304</v>
       </c>
       <c r="E575" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F575" t="s">
         <v>34</v>
@@ -46859,7 +46859,7 @@
         <v>43304</v>
       </c>
       <c r="E576" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F576" t="s">
         <v>34</v>
@@ -46936,7 +46936,7 @@
         <v>43304</v>
       </c>
       <c r="E577" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F577" t="s">
         <v>34</v>
@@ -47013,7 +47013,7 @@
         <v>43304</v>
       </c>
       <c r="E578" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F578" t="s">
         <v>34</v>
@@ -47090,7 +47090,7 @@
         <v>43304</v>
       </c>
       <c r="E579" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F579" t="s">
         <v>34</v>
@@ -47167,7 +47167,7 @@
         <v>43304</v>
       </c>
       <c r="E580" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F580" t="s">
         <v>34</v>
@@ -47244,7 +47244,7 @@
         <v>43304</v>
       </c>
       <c r="E581" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F581" t="s">
         <v>34</v>
@@ -47321,7 +47321,7 @@
         <v>43304</v>
       </c>
       <c r="E582" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F582" t="s">
         <v>34</v>
@@ -47398,7 +47398,7 @@
         <v>43304</v>
       </c>
       <c r="E583" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F583" t="s">
         <v>34</v>
@@ -47475,7 +47475,7 @@
         <v>43304</v>
       </c>
       <c r="E584" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F584" t="s">
         <v>34</v>
@@ -47552,7 +47552,7 @@
         <v>43304</v>
       </c>
       <c r="E585" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F585" t="s">
         <v>34</v>
@@ -47629,7 +47629,7 @@
         <v>43304</v>
       </c>
       <c r="E586" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F586" t="s">
         <v>34</v>
@@ -47706,7 +47706,7 @@
         <v>43304</v>
       </c>
       <c r="E587" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F587" t="s">
         <v>34</v>
@@ -47783,7 +47783,7 @@
         <v>43304</v>
       </c>
       <c r="E588" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F588" t="s">
         <v>34</v>
@@ -47860,7 +47860,7 @@
         <v>43304</v>
       </c>
       <c r="E589" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F589" t="s">
         <v>34</v>
@@ -47937,7 +47937,7 @@
         <v>43304</v>
       </c>
       <c r="E590" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F590" t="s">
         <v>34</v>
@@ -48014,7 +48014,7 @@
         <v>43304</v>
       </c>
       <c r="E591" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F591" t="s">
         <v>34</v>
@@ -48091,7 +48091,7 @@
         <v>43304</v>
       </c>
       <c r="E592" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F592" t="s">
         <v>34</v>
@@ -48168,7 +48168,7 @@
         <v>43304</v>
       </c>
       <c r="E593" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F593" t="s">
         <v>34</v>
@@ -48245,7 +48245,7 @@
         <v>43304</v>
       </c>
       <c r="E594" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F594" t="s">
         <v>34</v>
@@ -48322,7 +48322,7 @@
         <v>43304</v>
       </c>
       <c r="E595" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F595" t="s">
         <v>34</v>
@@ -48399,7 +48399,7 @@
         <v>43304</v>
       </c>
       <c r="E596" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F596" t="s">
         <v>34</v>
@@ -48476,7 +48476,7 @@
         <v>43304</v>
       </c>
       <c r="E597" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F597" t="s">
         <v>34</v>
@@ -48553,7 +48553,7 @@
         <v>43304</v>
       </c>
       <c r="E598" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F598" t="s">
         <v>34</v>
@@ -48630,7 +48630,7 @@
         <v>43304</v>
       </c>
       <c r="E599" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F599" t="s">
         <v>34</v>
@@ -48707,7 +48707,7 @@
         <v>43304</v>
       </c>
       <c r="E600" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F600" t="s">
         <v>34</v>
@@ -48784,7 +48784,7 @@
         <v>43304</v>
       </c>
       <c r="E601" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F601" t="s">
         <v>34</v>
@@ -48861,7 +48861,7 @@
         <v>43304</v>
       </c>
       <c r="E602" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F602" t="s">
         <v>34</v>
@@ -48938,7 +48938,7 @@
         <v>43304</v>
       </c>
       <c r="E603" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F603" t="s">
         <v>34</v>
@@ -49015,7 +49015,7 @@
         <v>43304</v>
       </c>
       <c r="E604" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F604" t="s">
         <v>34</v>
@@ -49092,7 +49092,7 @@
         <v>43304</v>
       </c>
       <c r="E605" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F605" t="s">
         <v>34</v>
@@ -49169,7 +49169,7 @@
         <v>43304</v>
       </c>
       <c r="E606" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F606" t="s">
         <v>34</v>
@@ -49246,7 +49246,7 @@
         <v>43304</v>
       </c>
       <c r="E607" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F607" t="s">
         <v>34</v>
@@ -49323,7 +49323,7 @@
         <v>43304</v>
       </c>
       <c r="E608" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F608" t="s">
         <v>34</v>
@@ -49400,7 +49400,7 @@
         <v>43304</v>
       </c>
       <c r="E609" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F609" t="s">
         <v>34</v>
@@ -49477,7 +49477,7 @@
         <v>43304</v>
       </c>
       <c r="E610" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F610" t="s">
         <v>34</v>
@@ -49554,7 +49554,7 @@
         <v>43304</v>
       </c>
       <c r="E611" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F611" t="s">
         <v>34</v>
@@ -49631,7 +49631,7 @@
         <v>43304</v>
       </c>
       <c r="E612" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F612" t="s">
         <v>34</v>
@@ -49708,7 +49708,7 @@
         <v>43304</v>
       </c>
       <c r="E613" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F613" t="s">
         <v>34</v>
@@ -49785,7 +49785,7 @@
         <v>43304</v>
       </c>
       <c r="E614" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F614" t="s">
         <v>34</v>
@@ -49862,7 +49862,7 @@
         <v>43304</v>
       </c>
       <c r="E615" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F615" t="s">
         <v>34</v>
@@ -49939,7 +49939,7 @@
         <v>43304</v>
       </c>
       <c r="E616" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F616" t="s">
         <v>34</v>
@@ -50016,7 +50016,7 @@
         <v>43304</v>
       </c>
       <c r="E617" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F617" t="s">
         <v>34</v>
@@ -50093,7 +50093,7 @@
         <v>43304</v>
       </c>
       <c r="E618" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F618" t="s">
         <v>34</v>
@@ -50170,7 +50170,7 @@
         <v>43304</v>
       </c>
       <c r="E619" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F619" t="s">
         <v>34</v>
@@ -50247,7 +50247,7 @@
         <v>43304</v>
       </c>
       <c r="E620" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F620" t="s">
         <v>34</v>
@@ -50324,7 +50324,7 @@
         <v>43304</v>
       </c>
       <c r="E621" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F621" t="s">
         <v>34</v>
@@ -50401,7 +50401,7 @@
         <v>43304</v>
       </c>
       <c r="E622" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F622" t="s">
         <v>34</v>
@@ -50478,7 +50478,7 @@
         <v>43304</v>
       </c>
       <c r="E623" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F623" t="s">
         <v>34</v>
@@ -50555,7 +50555,7 @@
         <v>43304</v>
       </c>
       <c r="E624" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F624" t="s">
         <v>34</v>
@@ -50632,7 +50632,7 @@
         <v>43304</v>
       </c>
       <c r="E625" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F625" t="s">
         <v>34</v>
@@ -50709,7 +50709,7 @@
         <v>43304</v>
       </c>
       <c r="E626" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F626" t="s">
         <v>34</v>
@@ -50786,7 +50786,7 @@
         <v>43304</v>
       </c>
       <c r="E627" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F627" t="s">
         <v>34</v>
@@ -50863,7 +50863,7 @@
         <v>43304</v>
       </c>
       <c r="E628" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F628" t="s">
         <v>34</v>
@@ -50940,7 +50940,7 @@
         <v>43304</v>
       </c>
       <c r="E629" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F629" t="s">
         <v>34</v>
@@ -51017,7 +51017,7 @@
         <v>43304</v>
       </c>
       <c r="E630" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F630" t="s">
         <v>34</v>
@@ -51094,7 +51094,7 @@
         <v>43304</v>
       </c>
       <c r="E631" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F631" t="s">
         <v>34</v>
@@ -51171,7 +51171,7 @@
         <v>43304</v>
       </c>
       <c r="E632" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F632" t="s">
         <v>34</v>
@@ -51248,7 +51248,7 @@
         <v>43304</v>
       </c>
       <c r="E633" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F633" t="s">
         <v>34</v>
@@ -51325,7 +51325,7 @@
         <v>43304</v>
       </c>
       <c r="E634" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F634" t="s">
         <v>34</v>
@@ -51402,7 +51402,7 @@
         <v>43304</v>
       </c>
       <c r="E635" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F635" t="s">
         <v>34</v>
@@ -51479,7 +51479,7 @@
         <v>43304</v>
       </c>
       <c r="E636" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F636" t="s">
         <v>34</v>
@@ -51556,7 +51556,7 @@
         <v>43304</v>
       </c>
       <c r="E637" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F637" t="s">
         <v>34</v>
@@ -51633,7 +51633,7 @@
         <v>43304</v>
       </c>
       <c r="E638" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F638" t="s">
         <v>34</v>
@@ -51710,7 +51710,7 @@
         <v>43304</v>
       </c>
       <c r="E639" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F639" t="s">
         <v>34</v>
@@ -51787,7 +51787,7 @@
         <v>43304</v>
       </c>
       <c r="E640" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F640" t="s">
         <v>34</v>
@@ -51864,7 +51864,7 @@
         <v>43304</v>
       </c>
       <c r="E641" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F641" t="s">
         <v>34</v>
@@ -51941,7 +51941,7 @@
         <v>43304</v>
       </c>
       <c r="E642" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F642" t="s">
         <v>34</v>
@@ -52018,7 +52018,7 @@
         <v>43304</v>
       </c>
       <c r="E643" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F643" t="s">
         <v>34</v>
@@ -52095,7 +52095,7 @@
         <v>43304</v>
       </c>
       <c r="E644" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F644" t="s">
         <v>34</v>
@@ -52172,7 +52172,7 @@
         <v>43304</v>
       </c>
       <c r="E645" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F645" t="s">
         <v>34</v>
@@ -52249,7 +52249,7 @@
         <v>43304</v>
       </c>
       <c r="E646" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F646" t="s">
         <v>34</v>
@@ -52326,7 +52326,7 @@
         <v>43304</v>
       </c>
       <c r="E647" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F647" t="s">
         <v>34</v>
@@ -52403,7 +52403,7 @@
         <v>43304</v>
       </c>
       <c r="E648" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F648" t="s">
         <v>34</v>
@@ -52480,7 +52480,7 @@
         <v>43304</v>
       </c>
       <c r="E649" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F649" t="s">
         <v>34</v>
@@ -52557,7 +52557,7 @@
         <v>43304</v>
       </c>
       <c r="E650" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F650" t="s">
         <v>34</v>
@@ -52634,7 +52634,7 @@
         <v>43304</v>
       </c>
       <c r="E651" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F651" t="s">
         <v>34</v>
@@ -52711,7 +52711,7 @@
         <v>43304</v>
       </c>
       <c r="E652" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F652" t="s">
         <v>34</v>
@@ -52788,7 +52788,7 @@
         <v>43304</v>
       </c>
       <c r="E653" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F653" t="s">
         <v>34</v>
@@ -52865,7 +52865,7 @@
         <v>43304</v>
       </c>
       <c r="E654" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F654" t="s">
         <v>34</v>
@@ -52942,7 +52942,7 @@
         <v>43304</v>
       </c>
       <c r="E655" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F655" t="s">
         <v>34</v>
@@ -53019,7 +53019,7 @@
         <v>43304</v>
       </c>
       <c r="E656" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F656" t="s">
         <v>34</v>
@@ -53096,7 +53096,7 @@
         <v>43304</v>
       </c>
       <c r="E657" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F657" t="s">
         <v>34</v>
@@ -53173,7 +53173,7 @@
         <v>43304</v>
       </c>
       <c r="E658" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F658" t="s">
         <v>34</v>
@@ -53250,7 +53250,7 @@
         <v>43304</v>
       </c>
       <c r="E659" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F659" t="s">
         <v>34</v>
@@ -53327,7 +53327,7 @@
         <v>43304</v>
       </c>
       <c r="E660" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F660" t="s">
         <v>34</v>
@@ -53404,7 +53404,7 @@
         <v>43304</v>
       </c>
       <c r="E661" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F661" t="s">
         <v>34</v>
@@ -53481,7 +53481,7 @@
         <v>43304</v>
       </c>
       <c r="E662" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F662" t="s">
         <v>34</v>
@@ -53558,7 +53558,7 @@
         <v>43304</v>
       </c>
       <c r="E663" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F663" t="s">
         <v>34</v>
@@ -53635,7 +53635,7 @@
         <v>43304</v>
       </c>
       <c r="E664" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F664" t="s">
         <v>34</v>
@@ -53712,7 +53712,7 @@
         <v>43304</v>
       </c>
       <c r="E665" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F665" t="s">
         <v>34</v>
@@ -53789,7 +53789,7 @@
         <v>43304</v>
       </c>
       <c r="E666" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F666" t="s">
         <v>34</v>
@@ -53866,7 +53866,7 @@
         <v>43304</v>
       </c>
       <c r="E667" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F667" t="s">
         <v>34</v>
@@ -53943,7 +53943,7 @@
         <v>43304</v>
       </c>
       <c r="E668" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F668" t="s">
         <v>34</v>
@@ -54020,7 +54020,7 @@
         <v>43304</v>
       </c>
       <c r="E669" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F669" t="s">
         <v>34</v>
@@ -54097,7 +54097,7 @@
         <v>43304</v>
       </c>
       <c r="E670" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F670" t="s">
         <v>34</v>
@@ -54174,7 +54174,7 @@
         <v>43304</v>
       </c>
       <c r="E671" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F671" t="s">
         <v>34</v>
@@ -54251,7 +54251,7 @@
         <v>43304</v>
       </c>
       <c r="E672" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F672" t="s">
         <v>34</v>
@@ -54328,7 +54328,7 @@
         <v>43304</v>
       </c>
       <c r="E673" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F673" t="s">
         <v>34</v>
@@ -54405,7 +54405,7 @@
         <v>43304</v>
       </c>
       <c r="E674" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F674" t="s">
         <v>34</v>
@@ -54482,7 +54482,7 @@
         <v>43304</v>
       </c>
       <c r="E675" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F675" t="s">
         <v>34</v>
@@ -54559,7 +54559,7 @@
         <v>43304</v>
       </c>
       <c r="E676" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F676" t="s">
         <v>34</v>
@@ -54636,7 +54636,7 @@
         <v>43304</v>
       </c>
       <c r="E677" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F677" t="s">
         <v>34</v>
@@ -54713,7 +54713,7 @@
         <v>43304</v>
       </c>
       <c r="E678" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F678" t="s">
         <v>34</v>
@@ -54790,7 +54790,7 @@
         <v>43304</v>
       </c>
       <c r="E679" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F679" t="s">
         <v>34</v>
@@ -54867,7 +54867,7 @@
         <v>43304</v>
       </c>
       <c r="E680" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F680" t="s">
         <v>34</v>
@@ -54944,7 +54944,7 @@
         <v>43304</v>
       </c>
       <c r="E681" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F681" t="s">
         <v>34</v>
@@ -55021,7 +55021,7 @@
         <v>43304</v>
       </c>
       <c r="E682" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F682" t="s">
         <v>34</v>
@@ -55098,7 +55098,7 @@
         <v>43304</v>
       </c>
       <c r="E683" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F683" t="s">
         <v>34</v>
@@ -55175,7 +55175,7 @@
         <v>43304</v>
       </c>
       <c r="E684" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F684" t="s">
         <v>34</v>
@@ -55252,7 +55252,7 @@
         <v>43304</v>
       </c>
       <c r="E685" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F685" t="s">
         <v>34</v>
@@ -55329,7 +55329,7 @@
         <v>43304</v>
       </c>
       <c r="E686" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F686" t="s">
         <v>34</v>
@@ -55406,7 +55406,7 @@
         <v>43304</v>
       </c>
       <c r="E687" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F687" t="s">
         <v>34</v>
@@ -55483,7 +55483,7 @@
         <v>43304</v>
       </c>
       <c r="E688" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F688" t="s">
         <v>34</v>
@@ -55560,7 +55560,7 @@
         <v>43304</v>
       </c>
       <c r="E689" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F689" t="s">
         <v>34</v>
@@ -55637,7 +55637,7 @@
         <v>43304</v>
       </c>
       <c r="E690" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F690" t="s">
         <v>34</v>
@@ -55714,7 +55714,7 @@
         <v>43304</v>
       </c>
       <c r="E691" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F691" t="s">
         <v>34</v>
@@ -55791,7 +55791,7 @@
         <v>43304</v>
       </c>
       <c r="E692" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F692" t="s">
         <v>34</v>
@@ -55868,7 +55868,7 @@
         <v>43304</v>
       </c>
       <c r="E693" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F693" t="s">
         <v>34</v>
@@ -55945,7 +55945,7 @@
         <v>43304</v>
       </c>
       <c r="E694" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F694" t="s">
         <v>34</v>
@@ -56022,7 +56022,7 @@
         <v>43304</v>
       </c>
       <c r="E695" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F695" t="s">
         <v>34</v>
@@ -56099,7 +56099,7 @@
         <v>43304</v>
       </c>
       <c r="E696" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F696" t="s">
         <v>34</v>
@@ -56176,7 +56176,7 @@
         <v>43304</v>
       </c>
       <c r="E697" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F697" t="s">
         <v>34</v>
@@ -56253,7 +56253,7 @@
         <v>43304</v>
       </c>
       <c r="E698" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F698" t="s">
         <v>34</v>
@@ -56330,7 +56330,7 @@
         <v>43304</v>
       </c>
       <c r="E699" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F699" t="s">
         <v>34</v>
@@ -56407,7 +56407,7 @@
         <v>43304</v>
       </c>
       <c r="E700" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F700" t="s">
         <v>34</v>
@@ -56484,7 +56484,7 @@
         <v>43304</v>
       </c>
       <c r="E701" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F701" t="s">
         <v>34</v>
@@ -56561,7 +56561,7 @@
         <v>43304</v>
       </c>
       <c r="E702" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F702" t="s">
         <v>34</v>
@@ -56638,7 +56638,7 @@
         <v>43304</v>
       </c>
       <c r="E703" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F703" t="s">
         <v>34</v>
@@ -56715,7 +56715,7 @@
         <v>43304</v>
       </c>
       <c r="E704" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F704" t="s">
         <v>34</v>
@@ -56792,7 +56792,7 @@
         <v>43304</v>
       </c>
       <c r="E705" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F705" t="s">
         <v>34</v>
@@ -56869,7 +56869,7 @@
         <v>43304</v>
       </c>
       <c r="E706" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F706" t="s">
         <v>34</v>
@@ -56946,7 +56946,7 @@
         <v>43304</v>
       </c>
       <c r="E707" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F707" t="s">
         <v>34</v>
@@ -57023,7 +57023,7 @@
         <v>43304</v>
       </c>
       <c r="E708" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F708" t="s">
         <v>34</v>
@@ -57100,7 +57100,7 @@
         <v>43304</v>
       </c>
       <c r="E709" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F709" t="s">
         <v>34</v>
@@ -57177,7 +57177,7 @@
         <v>43304</v>
       </c>
       <c r="E710" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F710" t="s">
         <v>34</v>
@@ -57254,7 +57254,7 @@
         <v>43304</v>
       </c>
       <c r="E711" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F711" t="s">
         <v>34</v>
@@ -57331,7 +57331,7 @@
         <v>43304</v>
       </c>
       <c r="E712" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F712" t="s">
         <v>34</v>
@@ -57408,7 +57408,7 @@
         <v>43304</v>
       </c>
       <c r="E713" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F713" t="s">
         <v>34</v>
@@ -57485,7 +57485,7 @@
         <v>43304</v>
       </c>
       <c r="E714" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F714" t="s">
         <v>34</v>
@@ -57562,7 +57562,7 @@
         <v>43304</v>
       </c>
       <c r="E715" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F715" t="s">
         <v>34</v>
@@ -57639,7 +57639,7 @@
         <v>43304</v>
       </c>
       <c r="E716" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F716" t="s">
         <v>34</v>
@@ -57716,7 +57716,7 @@
         <v>43304</v>
       </c>
       <c r="E717" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F717" t="s">
         <v>34</v>
@@ -57793,7 +57793,7 @@
         <v>43304</v>
       </c>
       <c r="E718" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F718" t="s">
         <v>34</v>
@@ -57870,7 +57870,7 @@
         <v>43304</v>
       </c>
       <c r="E719" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F719" t="s">
         <v>34</v>
@@ -57947,7 +57947,7 @@
         <v>43304</v>
       </c>
       <c r="E720" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F720" t="s">
         <v>34</v>
@@ -58024,7 +58024,7 @@
         <v>43304</v>
       </c>
       <c r="E721" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F721" t="s">
         <v>34</v>
@@ -58101,7 +58101,7 @@
         <v>43304</v>
       </c>
       <c r="E722" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F722" t="s">
         <v>34</v>
@@ -58178,7 +58178,7 @@
         <v>43304</v>
       </c>
       <c r="E723" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F723" t="s">
         <v>34</v>
@@ -58255,7 +58255,7 @@
         <v>43304</v>
       </c>
       <c r="E724" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F724" t="s">
         <v>34</v>
@@ -58332,7 +58332,7 @@
         <v>43304</v>
       </c>
       <c r="E725" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F725" t="s">
         <v>34</v>
@@ -58409,7 +58409,7 @@
         <v>43304</v>
       </c>
       <c r="E726" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F726" t="s">
         <v>34</v>
@@ -58486,7 +58486,7 @@
         <v>43304</v>
       </c>
       <c r="E727" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F727" t="s">
         <v>34</v>
@@ -58563,7 +58563,7 @@
         <v>43304</v>
       </c>
       <c r="E728" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F728" t="s">
         <v>34</v>
@@ -58640,7 +58640,7 @@
         <v>43304</v>
       </c>
       <c r="E729" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F729" t="s">
         <v>34</v>
@@ -58717,7 +58717,7 @@
         <v>43304</v>
       </c>
       <c r="E730" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F730" t="s">
         <v>34</v>
@@ -58794,7 +58794,7 @@
         <v>43304</v>
       </c>
       <c r="E731" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F731" t="s">
         <v>34</v>
@@ -58871,7 +58871,7 @@
         <v>43304</v>
       </c>
       <c r="E732" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F732" t="s">
         <v>34</v>
@@ -58948,7 +58948,7 @@
         <v>43304</v>
       </c>
       <c r="E733" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F733" t="s">
         <v>34</v>
@@ -59025,7 +59025,7 @@
         <v>43304</v>
       </c>
       <c r="E734" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F734" t="s">
         <v>34</v>
@@ -59102,7 +59102,7 @@
         <v>43304</v>
       </c>
       <c r="E735" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F735" t="s">
         <v>34</v>
@@ -59179,7 +59179,7 @@
         <v>43304</v>
       </c>
       <c r="E736" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F736" t="s">
         <v>34</v>
@@ -59256,7 +59256,7 @@
         <v>43304</v>
       </c>
       <c r="E737" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F737" t="s">
         <v>34</v>
@@ -59333,7 +59333,7 @@
         <v>43304</v>
       </c>
       <c r="E738" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F738" t="s">
         <v>34</v>
@@ -59410,7 +59410,7 @@
         <v>43304</v>
       </c>
       <c r="E739" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F739" t="s">
         <v>34</v>
@@ -59487,7 +59487,7 @@
         <v>43304</v>
       </c>
       <c r="E740" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F740" t="s">
         <v>34</v>
@@ -59564,7 +59564,7 @@
         <v>43304</v>
       </c>
       <c r="E741" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F741" t="s">
         <v>34</v>
@@ -59641,7 +59641,7 @@
         <v>43304</v>
       </c>
       <c r="E742" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F742" t="s">
         <v>34</v>
@@ -59718,7 +59718,7 @@
         <v>43304</v>
       </c>
       <c r="E743" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F743" t="s">
         <v>34</v>
@@ -59795,7 +59795,7 @@
         <v>43304</v>
       </c>
       <c r="E744" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F744" t="s">
         <v>34</v>
@@ -59872,7 +59872,7 @@
         <v>43304</v>
       </c>
       <c r="E745" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F745" t="s">
         <v>34</v>
@@ -59949,7 +59949,7 @@
         <v>43304</v>
       </c>
       <c r="E746" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F746" t="s">
         <v>34</v>
@@ -60026,7 +60026,7 @@
         <v>43304</v>
       </c>
       <c r="E747" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F747" t="s">
         <v>34</v>
@@ -60103,7 +60103,7 @@
         <v>43304</v>
       </c>
       <c r="E748" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F748" t="s">
         <v>34</v>
@@ -60180,7 +60180,7 @@
         <v>43304</v>
       </c>
       <c r="E749" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F749" t="s">
         <v>34</v>
@@ -60257,7 +60257,7 @@
         <v>43304</v>
       </c>
       <c r="E750" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F750" t="s">
         <v>34</v>
@@ -60334,7 +60334,7 @@
         <v>43304</v>
       </c>
       <c r="E751" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F751" t="s">
         <v>34</v>
@@ -60411,7 +60411,7 @@
         <v>43304</v>
       </c>
       <c r="E752" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F752" t="s">
         <v>34</v>
@@ -60488,7 +60488,7 @@
         <v>43304</v>
       </c>
       <c r="E753" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F753" t="s">
         <v>34</v>
@@ -60565,7 +60565,7 @@
         <v>43304</v>
       </c>
       <c r="E754" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F754" t="s">
         <v>34</v>
@@ -60642,7 +60642,7 @@
         <v>43304</v>
       </c>
       <c r="E755" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F755" t="s">
         <v>34</v>
@@ -60719,7 +60719,7 @@
         <v>43304</v>
       </c>
       <c r="E756" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F756" t="s">
         <v>34</v>
@@ -60796,7 +60796,7 @@
         <v>43304</v>
       </c>
       <c r="E757" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F757" t="s">
         <v>34</v>
@@ -60873,7 +60873,7 @@
         <v>43304</v>
       </c>
       <c r="E758" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F758" t="s">
         <v>34</v>
@@ -60950,7 +60950,7 @@
         <v>43304</v>
       </c>
       <c r="E759" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F759" t="s">
         <v>34</v>
@@ -61027,7 +61027,7 @@
         <v>43304</v>
       </c>
       <c r="E760" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F760" t="s">
         <v>34</v>
@@ -61104,7 +61104,7 @@
         <v>43304</v>
       </c>
       <c r="E761" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F761" t="s">
         <v>34</v>
@@ -61181,7 +61181,7 @@
         <v>43304</v>
       </c>
       <c r="E762" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F762" t="s">
         <v>34</v>
@@ -61258,7 +61258,7 @@
         <v>43304</v>
       </c>
       <c r="E763" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F763" t="s">
         <v>34</v>
@@ -61335,7 +61335,7 @@
         <v>43304</v>
       </c>
       <c r="E764" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F764" t="s">
         <v>34</v>
@@ -61412,7 +61412,7 @@
         <v>43304</v>
       </c>
       <c r="E765" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F765" t="s">
         <v>34</v>
@@ -61489,7 +61489,7 @@
         <v>43304</v>
       </c>
       <c r="E766" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F766" t="s">
         <v>34</v>
@@ -61566,7 +61566,7 @@
         <v>43304</v>
       </c>
       <c r="E767" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F767" t="s">
         <v>34</v>
@@ -61643,7 +61643,7 @@
         <v>43304</v>
       </c>
       <c r="E768" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F768" t="s">
         <v>34</v>
@@ -61720,7 +61720,7 @@
         <v>43304</v>
       </c>
       <c r="E769" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F769" t="s">
         <v>34</v>
@@ -61797,7 +61797,7 @@
         <v>43304</v>
       </c>
       <c r="E770" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F770" t="s">
         <v>34</v>
@@ -61874,7 +61874,7 @@
         <v>43304</v>
       </c>
       <c r="E771" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F771" t="s">
         <v>34</v>
@@ -61951,7 +61951,7 @@
         <v>43304</v>
       </c>
       <c r="E772" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F772" t="s">
         <v>34</v>
@@ -62028,7 +62028,7 @@
         <v>43304</v>
       </c>
       <c r="E773" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F773" t="s">
         <v>34</v>
@@ -62105,7 +62105,7 @@
         <v>43304</v>
       </c>
       <c r="E774" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F774" t="s">
         <v>34</v>
@@ -62182,7 +62182,7 @@
         <v>43304</v>
       </c>
       <c r="E775" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F775" t="s">
         <v>34</v>
@@ -62259,7 +62259,7 @@
         <v>43304</v>
       </c>
       <c r="E776" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F776" t="s">
         <v>34</v>
@@ -62336,7 +62336,7 @@
         <v>43304</v>
       </c>
       <c r="E777" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F777" t="s">
         <v>34</v>
@@ -62413,7 +62413,7 @@
         <v>43304</v>
       </c>
       <c r="E778" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F778" t="s">
         <v>34</v>
@@ -62490,7 +62490,7 @@
         <v>43304</v>
       </c>
       <c r="E779" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F779" t="s">
         <v>34</v>
@@ -62567,7 +62567,7 @@
         <v>43304</v>
       </c>
       <c r="E780" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F780" t="s">
         <v>34</v>
@@ -62644,7 +62644,7 @@
         <v>43304</v>
       </c>
       <c r="E781" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F781" t="s">
         <v>34</v>
@@ -62721,7 +62721,7 @@
         <v>43270</v>
       </c>
       <c r="E782" s="1">
-        <v>43315</v>
+        <v>43376</v>
       </c>
       <c r="F782" t="s">
         <v>34</v>
@@ -62798,7 +62798,7 @@
         <v>43270</v>
       </c>
       <c r="E783" s="1">
-        <v>43315</v>
+        <v>43376</v>
       </c>
       <c r="F783" t="s">
         <v>34</v>
@@ -62875,7 +62875,7 @@
         <v>43270</v>
       </c>
       <c r="E784" s="1">
-        <v>43315</v>
+        <v>43376</v>
       </c>
       <c r="F784" t="s">
         <v>34</v>
@@ -62952,7 +62952,7 @@
         <v>43270</v>
       </c>
       <c r="E785" s="1">
-        <v>43315</v>
+        <v>43376</v>
       </c>
       <c r="F785" t="s">
         <v>34</v>
@@ -63029,7 +63029,7 @@
         <v>43306</v>
       </c>
       <c r="E786" s="1">
-        <v>43318</v>
+        <v>43379</v>
       </c>
       <c r="F786" t="s">
         <v>34</v>
@@ -63106,7 +63106,7 @@
         <v>43306</v>
       </c>
       <c r="E787" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F787" t="s">
         <v>34</v>
@@ -63183,7 +63183,7 @@
         <v>43306</v>
       </c>
       <c r="E788" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F788" t="s">
         <v>34</v>
@@ -63260,7 +63260,7 @@
         <v>43306</v>
       </c>
       <c r="E789" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F789" t="s">
         <v>34</v>
@@ -63337,7 +63337,7 @@
         <v>43306</v>
       </c>
       <c r="E790" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F790" t="s">
         <v>34</v>
@@ -63414,7 +63414,7 @@
         <v>43306</v>
       </c>
       <c r="E791" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F791" t="s">
         <v>34</v>
@@ -63491,7 +63491,7 @@
         <v>43306</v>
       </c>
       <c r="E792" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F792" t="s">
         <v>34</v>
@@ -63568,7 +63568,7 @@
         <v>43306</v>
       </c>
       <c r="E793" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F793" t="s">
         <v>34</v>
@@ -63645,7 +63645,7 @@
         <v>43306</v>
       </c>
       <c r="E794" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F794" t="s">
         <v>34</v>
@@ -63722,7 +63722,7 @@
         <v>43306</v>
       </c>
       <c r="E795" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F795" t="s">
         <v>34</v>
@@ -63799,7 +63799,7 @@
         <v>43306</v>
       </c>
       <c r="E796" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F796" t="s">
         <v>34</v>
@@ -63876,7 +63876,7 @@
         <v>43306</v>
       </c>
       <c r="E797" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F797" t="s">
         <v>34</v>
@@ -63953,7 +63953,7 @@
         <v>43306</v>
       </c>
       <c r="E798" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F798" t="s">
         <v>34</v>
@@ -64030,7 +64030,7 @@
         <v>43306</v>
       </c>
       <c r="E799" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F799" t="s">
         <v>34</v>
@@ -64107,7 +64107,7 @@
         <v>43306</v>
       </c>
       <c r="E800" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F800" t="s">
         <v>34</v>
@@ -64184,7 +64184,7 @@
         <v>43306</v>
       </c>
       <c r="E801" s="1">
-        <v>43318</v>
+        <v>43379</v>
       </c>
       <c r="F801" t="s">
         <v>34</v>
@@ -64261,7 +64261,7 @@
         <v>43311</v>
       </c>
       <c r="E802" s="1">
-        <v>43315</v>
+        <v>43376</v>
       </c>
       <c r="F802" t="s">
         <v>34</v>
@@ -64338,7 +64338,7 @@
         <v>43311</v>
       </c>
       <c r="E803" s="1">
-        <v>43315</v>
+        <v>43376</v>
       </c>
       <c r="F803" t="s">
         <v>34</v>
@@ -64415,7 +64415,7 @@
         <v>43311</v>
       </c>
       <c r="E804" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F804" t="s">
         <v>34</v>
@@ -64492,7 +64492,7 @@
         <v>43311</v>
       </c>
       <c r="E805" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F805" t="s">
         <v>34</v>
@@ -64569,7 +64569,7 @@
         <v>43311</v>
       </c>
       <c r="E806" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F806" t="s">
         <v>34</v>
@@ -64646,7 +64646,7 @@
         <v>43311</v>
       </c>
       <c r="E807" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F807" t="s">
         <v>34</v>
@@ -64723,7 +64723,7 @@
         <v>43311</v>
       </c>
       <c r="E808" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F808" t="s">
         <v>34</v>
@@ -64800,7 +64800,7 @@
         <v>43311</v>
       </c>
       <c r="E809" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F809" t="s">
         <v>34</v>
@@ -64877,7 +64877,7 @@
         <v>43311</v>
       </c>
       <c r="E810" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F810" t="s">
         <v>34</v>
@@ -64954,7 +64954,7 @@
         <v>43311</v>
       </c>
       <c r="E811" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F811" t="s">
         <v>34</v>
@@ -65031,7 +65031,7 @@
         <v>43312</v>
       </c>
       <c r="E812" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F812" t="s">
         <v>34</v>
@@ -65108,7 +65108,7 @@
         <v>43312</v>
       </c>
       <c r="E813" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F813" t="s">
         <v>34</v>
@@ -65185,7 +65185,7 @@
         <v>43312</v>
       </c>
       <c r="E814" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F814" t="s">
         <v>34</v>
@@ -65262,7 +65262,7 @@
         <v>43312</v>
       </c>
       <c r="E815" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F815" t="s">
         <v>34</v>
@@ -65339,7 +65339,7 @@
         <v>43312</v>
       </c>
       <c r="E816" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F816" t="s">
         <v>34</v>
@@ -65416,7 +65416,7 @@
         <v>43312</v>
       </c>
       <c r="E817" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F817" t="s">
         <v>34</v>
@@ -65493,7 +65493,7 @@
         <v>43312</v>
       </c>
       <c r="E818" s="1">
-        <v>43315</v>
+        <v>43376</v>
       </c>
       <c r="F818" t="s">
         <v>34</v>
@@ -65570,7 +65570,7 @@
         <v>43312</v>
       </c>
       <c r="E819" s="1">
-        <v>43315</v>
+        <v>43376</v>
       </c>
       <c r="F819" t="s">
         <v>34</v>
@@ -65647,7 +65647,7 @@
         <v>43312</v>
       </c>
       <c r="E820" s="1">
-        <v>43315</v>
+        <v>43376</v>
       </c>
       <c r="F820" t="s">
         <v>34</v>
@@ -65724,7 +65724,7 @@
         <v>43312</v>
       </c>
       <c r="E821" s="1">
-        <v>43315</v>
+        <v>43376</v>
       </c>
       <c r="F821" t="s">
         <v>34</v>
@@ -65801,7 +65801,7 @@
         <v>43312</v>
       </c>
       <c r="E822" s="1">
-        <v>43315</v>
+        <v>43376</v>
       </c>
       <c r="F822" t="s">
         <v>34</v>
@@ -65878,7 +65878,7 @@
         <v>43312</v>
       </c>
       <c r="E823" s="1">
-        <v>43315</v>
+        <v>43376</v>
       </c>
       <c r="F823" t="s">
         <v>34</v>
@@ -65955,7 +65955,7 @@
         <v>43312</v>
       </c>
       <c r="E824" s="1">
-        <v>43315</v>
+        <v>43376</v>
       </c>
       <c r="F824" t="s">
         <v>34</v>
@@ -66032,7 +66032,7 @@
         <v>43312</v>
       </c>
       <c r="E825" s="1">
-        <v>43315</v>
+        <v>43376</v>
       </c>
       <c r="F825" t="s">
         <v>34</v>
@@ -66109,7 +66109,7 @@
         <v>43312</v>
       </c>
       <c r="E826" s="1">
-        <v>43315</v>
+        <v>43376</v>
       </c>
       <c r="F826" t="s">
         <v>34</v>
@@ -66186,7 +66186,7 @@
         <v>43312</v>
       </c>
       <c r="E827" s="1">
-        <v>43315</v>
+        <v>43376</v>
       </c>
       <c r="F827" t="s">
         <v>34</v>
@@ -66263,7 +66263,7 @@
         <v>43312</v>
       </c>
       <c r="E828" s="1">
-        <v>43315</v>
+        <v>43376</v>
       </c>
       <c r="F828" t="s">
         <v>34</v>
@@ -66340,7 +66340,7 @@
         <v>43312</v>
       </c>
       <c r="E829" s="1">
-        <v>43315</v>
+        <v>43376</v>
       </c>
       <c r="F829" t="s">
         <v>34</v>
@@ -66417,7 +66417,7 @@
         <v>43312</v>
       </c>
       <c r="E830" s="1">
-        <v>43315</v>
+        <v>43376</v>
       </c>
       <c r="F830" t="s">
         <v>34</v>
@@ -66494,7 +66494,7 @@
         <v>43312</v>
       </c>
       <c r="E831" s="1">
-        <v>43315</v>
+        <v>43376</v>
       </c>
       <c r="F831" t="s">
         <v>34</v>
@@ -66571,7 +66571,7 @@
         <v>43312</v>
       </c>
       <c r="E832" s="1">
-        <v>43315</v>
+        <v>43376</v>
       </c>
       <c r="F832" t="s">
         <v>34</v>
@@ -66648,7 +66648,7 @@
         <v>43312</v>
       </c>
       <c r="E833" s="1">
-        <v>43315</v>
+        <v>43376</v>
       </c>
       <c r="F833" t="s">
         <v>34</v>
@@ -66725,7 +66725,7 @@
         <v>43312</v>
       </c>
       <c r="E834" s="1">
-        <v>43315</v>
+        <v>43376</v>
       </c>
       <c r="F834" t="s">
         <v>34</v>
@@ -66802,7 +66802,7 @@
         <v>43312</v>
       </c>
       <c r="E835" s="1">
-        <v>43315</v>
+        <v>43376</v>
       </c>
       <c r="F835" t="s">
         <v>34</v>
@@ -66879,7 +66879,7 @@
         <v>43312</v>
       </c>
       <c r="E836" s="1">
-        <v>43315</v>
+        <v>43376</v>
       </c>
       <c r="F836" t="s">
         <v>34</v>
@@ -66956,7 +66956,7 @@
         <v>43312</v>
       </c>
       <c r="E837" s="1">
-        <v>43315</v>
+        <v>43376</v>
       </c>
       <c r="F837" t="s">
         <v>34</v>
@@ -67033,7 +67033,7 @@
         <v>43312</v>
       </c>
       <c r="E838" s="1">
-        <v>43315</v>
+        <v>43376</v>
       </c>
       <c r="F838" t="s">
         <v>34</v>
@@ -67110,7 +67110,7 @@
         <v>43312</v>
       </c>
       <c r="E839" s="1">
-        <v>43315</v>
+        <v>43376</v>
       </c>
       <c r="F839" t="s">
         <v>34</v>
@@ -67187,7 +67187,7 @@
         <v>43312</v>
       </c>
       <c r="E840" s="1">
-        <v>43315</v>
+        <v>43376</v>
       </c>
       <c r="F840" t="s">
         <v>34</v>
@@ -67264,7 +67264,7 @@
         <v>43312</v>
       </c>
       <c r="E841" s="1">
-        <v>43315</v>
+        <v>43376</v>
       </c>
       <c r="F841" t="s">
         <v>34</v>
@@ -67341,7 +67341,7 @@
         <v>43312</v>
       </c>
       <c r="E842" s="1">
-        <v>43315</v>
+        <v>43376</v>
       </c>
       <c r="F842" t="s">
         <v>34</v>
@@ -67418,7 +67418,7 @@
         <v>43312</v>
       </c>
       <c r="E843" s="1">
-        <v>43315</v>
+        <v>43376</v>
       </c>
       <c r="F843" t="s">
         <v>34</v>
@@ -67495,7 +67495,7 @@
         <v>43312</v>
       </c>
       <c r="E844" s="1">
-        <v>43315</v>
+        <v>43376</v>
       </c>
       <c r="F844" t="s">
         <v>34</v>
@@ -67572,7 +67572,7 @@
         <v>43312</v>
       </c>
       <c r="E845" s="1">
-        <v>43315</v>
+        <v>43376</v>
       </c>
       <c r="F845" t="s">
         <v>34</v>
@@ -67649,7 +67649,7 @@
         <v>43312</v>
       </c>
       <c r="E846" s="1">
-        <v>43315</v>
+        <v>43376</v>
       </c>
       <c r="F846" t="s">
         <v>34</v>
@@ -67726,7 +67726,7 @@
         <v>43312</v>
       </c>
       <c r="E847" s="1">
-        <v>43315</v>
+        <v>43376</v>
       </c>
       <c r="F847" t="s">
         <v>34</v>
@@ -67803,7 +67803,7 @@
         <v>43312</v>
       </c>
       <c r="E848" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F848" t="s">
         <v>34</v>
@@ -67880,7 +67880,7 @@
         <v>43312</v>
       </c>
       <c r="E849" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F849" t="s">
         <v>34</v>
@@ -67957,7 +67957,7 @@
         <v>43312</v>
       </c>
       <c r="E850" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F850" t="s">
         <v>34</v>
@@ -68034,7 +68034,7 @@
         <v>43312</v>
       </c>
       <c r="E851" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F851" t="s">
         <v>34</v>
@@ -68111,7 +68111,7 @@
         <v>43312</v>
       </c>
       <c r="E852" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F852" t="s">
         <v>34</v>
@@ -68188,7 +68188,7 @@
         <v>43312</v>
       </c>
       <c r="E853" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F853" t="s">
         <v>34</v>
@@ -68265,7 +68265,7 @@
         <v>43312</v>
       </c>
       <c r="E854" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F854" t="s">
         <v>34</v>
@@ -68342,7 +68342,7 @@
         <v>43312</v>
       </c>
       <c r="E855" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F855" t="s">
         <v>34</v>
@@ -68419,7 +68419,7 @@
         <v>43312</v>
       </c>
       <c r="E856" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F856" t="s">
         <v>34</v>
@@ -68496,7 +68496,7 @@
         <v>43312</v>
       </c>
       <c r="E857" s="1">
-        <v>43315</v>
+        <v>43376</v>
       </c>
       <c r="F857" t="s">
         <v>34</v>
@@ -68573,7 +68573,7 @@
         <v>43312</v>
       </c>
       <c r="E858" s="1">
-        <v>43315</v>
+        <v>43376</v>
       </c>
       <c r="F858" t="s">
         <v>34</v>
@@ -68650,7 +68650,7 @@
         <v>43312</v>
       </c>
       <c r="E859" s="1">
-        <v>43315</v>
+        <v>43376</v>
       </c>
       <c r="F859" t="s">
         <v>34</v>
@@ -68727,7 +68727,7 @@
         <v>43312</v>
       </c>
       <c r="E860" s="1">
-        <v>43315</v>
+        <v>43376</v>
       </c>
       <c r="F860" t="s">
         <v>34</v>
@@ -68804,7 +68804,7 @@
         <v>43312</v>
       </c>
       <c r="E861" s="1">
-        <v>43315</v>
+        <v>43376</v>
       </c>
       <c r="F861" t="s">
         <v>34</v>
@@ -68881,7 +68881,7 @@
         <v>43312</v>
       </c>
       <c r="E862" s="1">
-        <v>43315</v>
+        <v>43376</v>
       </c>
       <c r="F862" t="s">
         <v>34</v>
@@ -68958,7 +68958,7 @@
         <v>43312</v>
       </c>
       <c r="E863" s="1">
-        <v>43315</v>
+        <v>43376</v>
       </c>
       <c r="F863" t="s">
         <v>34</v>
@@ -69035,7 +69035,7 @@
         <v>43312</v>
       </c>
       <c r="E864" s="1">
-        <v>43315</v>
+        <v>43376</v>
       </c>
       <c r="F864" t="s">
         <v>34</v>
@@ -69112,7 +69112,7 @@
         <v>43312</v>
       </c>
       <c r="E865" s="1">
-        <v>43315</v>
+        <v>43376</v>
       </c>
       <c r="F865" t="s">
         <v>34</v>
@@ -69189,7 +69189,7 @@
         <v>43312</v>
       </c>
       <c r="E866" s="1">
-        <v>43315</v>
+        <v>43376</v>
       </c>
       <c r="F866" t="s">
         <v>34</v>
@@ -69266,7 +69266,7 @@
         <v>43312</v>
       </c>
       <c r="E867" s="1">
-        <v>43315</v>
+        <v>43376</v>
       </c>
       <c r="F867" t="s">
         <v>34</v>
@@ -69343,7 +69343,7 @@
         <v>43312</v>
       </c>
       <c r="E868" s="1">
-        <v>43315</v>
+        <v>43376</v>
       </c>
       <c r="F868" t="s">
         <v>34</v>
@@ -69420,7 +69420,7 @@
         <v>43312</v>
       </c>
       <c r="E869" s="1">
-        <v>43315</v>
+        <v>43376</v>
       </c>
       <c r="F869" t="s">
         <v>34</v>
@@ -69497,7 +69497,7 @@
         <v>43312</v>
       </c>
       <c r="E870" s="1">
-        <v>43315</v>
+        <v>43376</v>
       </c>
       <c r="F870" t="s">
         <v>34</v>
@@ -69574,7 +69574,7 @@
         <v>43312</v>
       </c>
       <c r="E871" s="1">
-        <v>43315</v>
+        <v>43376</v>
       </c>
       <c r="F871" t="s">
         <v>34</v>
@@ -69651,7 +69651,7 @@
         <v>43312</v>
       </c>
       <c r="E872" s="1">
-        <v>43315</v>
+        <v>43376</v>
       </c>
       <c r="F872" t="s">
         <v>34</v>
@@ -69728,7 +69728,7 @@
         <v>43312</v>
       </c>
       <c r="E873" s="1">
-        <v>43315</v>
+        <v>43376</v>
       </c>
       <c r="F873" t="s">
         <v>34</v>
@@ -69805,7 +69805,7 @@
         <v>43312</v>
       </c>
       <c r="E874" s="1">
-        <v>43315</v>
+        <v>43376</v>
       </c>
       <c r="F874" t="s">
         <v>34</v>
@@ -69882,7 +69882,7 @@
         <v>43312</v>
       </c>
       <c r="E875" s="1">
-        <v>43315</v>
+        <v>43376</v>
       </c>
       <c r="F875" t="s">
         <v>34</v>
@@ -69959,7 +69959,7 @@
         <v>43312</v>
       </c>
       <c r="E876" s="1">
-        <v>43315</v>
+        <v>43376</v>
       </c>
       <c r="F876" t="s">
         <v>34</v>
@@ -70036,7 +70036,7 @@
         <v>43312</v>
       </c>
       <c r="E877" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F877" t="s">
         <v>34</v>
@@ -70113,7 +70113,7 @@
         <v>43312</v>
       </c>
       <c r="E878" s="1">
-        <v>43315</v>
+        <v>43376</v>
       </c>
       <c r="F878" t="s">
         <v>34</v>
@@ -70190,7 +70190,7 @@
         <v>43312</v>
       </c>
       <c r="E879" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F879" t="s">
         <v>34</v>
@@ -70267,7 +70267,7 @@
         <v>43312</v>
       </c>
       <c r="E880" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F880" t="s">
         <v>34</v>
@@ -70344,7 +70344,7 @@
         <v>43312</v>
       </c>
       <c r="E881" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F881" t="s">
         <v>34</v>
@@ -70421,7 +70421,7 @@
         <v>43312</v>
       </c>
       <c r="E882" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F882" t="s">
         <v>34</v>
@@ -70498,7 +70498,7 @@
         <v>43312</v>
       </c>
       <c r="E883" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F883" t="s">
         <v>34</v>
@@ -70575,7 +70575,7 @@
         <v>43312</v>
       </c>
       <c r="E884" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F884" t="s">
         <v>34</v>
@@ -70652,7 +70652,7 @@
         <v>43312</v>
       </c>
       <c r="E885" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F885" t="s">
         <v>34</v>
@@ -70729,7 +70729,7 @@
         <v>43312</v>
       </c>
       <c r="E886" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F886" t="s">
         <v>34</v>
@@ -70806,7 +70806,7 @@
         <v>43312</v>
       </c>
       <c r="E887" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F887" t="s">
         <v>34</v>
@@ -70883,7 +70883,7 @@
         <v>43312</v>
       </c>
       <c r="E888" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F888" t="s">
         <v>34</v>
@@ -70960,7 +70960,7 @@
         <v>43312</v>
       </c>
       <c r="E889" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F889" t="s">
         <v>34</v>
@@ -71037,7 +71037,7 @@
         <v>43312</v>
       </c>
       <c r="E890" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F890" t="s">
         <v>34</v>
@@ -71114,7 +71114,7 @@
         <v>43312</v>
       </c>
       <c r="E891" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F891" t="s">
         <v>34</v>
@@ -71191,7 +71191,7 @@
         <v>43312</v>
       </c>
       <c r="E892" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F892" t="s">
         <v>34</v>
@@ -71268,7 +71268,7 @@
         <v>43312</v>
       </c>
       <c r="E893" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F893" t="s">
         <v>34</v>
@@ -71345,7 +71345,7 @@
         <v>43312</v>
       </c>
       <c r="E894" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F894" t="s">
         <v>34</v>
@@ -71422,7 +71422,7 @@
         <v>43312</v>
       </c>
       <c r="E895" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F895" t="s">
         <v>34</v>
@@ -71499,7 +71499,7 @@
         <v>43312</v>
       </c>
       <c r="E896" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F896" t="s">
         <v>34</v>
@@ -71576,7 +71576,7 @@
         <v>43312</v>
       </c>
       <c r="E897" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F897" t="s">
         <v>34</v>
@@ -71653,7 +71653,7 @@
         <v>43312</v>
       </c>
       <c r="E898" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F898" t="s">
         <v>34</v>
@@ -71730,7 +71730,7 @@
         <v>43312</v>
       </c>
       <c r="E899" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F899" t="s">
         <v>34</v>
@@ -71807,7 +71807,7 @@
         <v>43312</v>
       </c>
       <c r="E900" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F900" t="s">
         <v>34</v>
@@ -71884,7 +71884,7 @@
         <v>43312</v>
       </c>
       <c r="E901" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F901" t="s">
         <v>34</v>
@@ -71961,7 +71961,7 @@
         <v>43312</v>
       </c>
       <c r="E902" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F902" t="s">
         <v>34</v>
@@ -72038,7 +72038,7 @@
         <v>43312</v>
       </c>
       <c r="E903" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F903" t="s">
         <v>34</v>
@@ -72115,7 +72115,7 @@
         <v>43312</v>
       </c>
       <c r="E904" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F904" t="s">
         <v>34</v>
@@ -72192,7 +72192,7 @@
         <v>43312</v>
       </c>
       <c r="E905" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F905" t="s">
         <v>34</v>
@@ -72269,7 +72269,7 @@
         <v>43312</v>
       </c>
       <c r="E906" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F906" t="s">
         <v>34</v>
@@ -72346,7 +72346,7 @@
         <v>43312</v>
       </c>
       <c r="E907" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F907" t="s">
         <v>34</v>
@@ -72423,7 +72423,7 @@
         <v>43312</v>
       </c>
       <c r="E908" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F908" t="s">
         <v>34</v>
@@ -72500,7 +72500,7 @@
         <v>43312</v>
       </c>
       <c r="E909" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F909" t="s">
         <v>34</v>
@@ -72577,7 +72577,7 @@
         <v>43312</v>
       </c>
       <c r="E910" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F910" t="s">
         <v>34</v>
@@ -72654,7 +72654,7 @@
         <v>43312</v>
       </c>
       <c r="E911" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F911" t="s">
         <v>34</v>
@@ -72731,7 +72731,7 @@
         <v>43312</v>
       </c>
       <c r="E912" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F912" t="s">
         <v>34</v>
@@ -72808,7 +72808,7 @@
         <v>43312</v>
       </c>
       <c r="E913" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F913" t="s">
         <v>34</v>
@@ -72885,7 +72885,7 @@
         <v>43312</v>
       </c>
       <c r="E914" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F914" t="s">
         <v>34</v>
@@ -72962,7 +72962,7 @@
         <v>43312</v>
       </c>
       <c r="E915" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F915" t="s">
         <v>34</v>
@@ -73039,7 +73039,7 @@
         <v>43312</v>
       </c>
       <c r="E916" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F916" t="s">
         <v>34</v>
@@ -73116,7 +73116,7 @@
         <v>43312</v>
       </c>
       <c r="E917" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F917" t="s">
         <v>34</v>
@@ -73193,7 +73193,7 @@
         <v>43312</v>
       </c>
       <c r="E918" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F918" t="s">
         <v>34</v>
@@ -73270,7 +73270,7 @@
         <v>43312</v>
       </c>
       <c r="E919" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F919" t="s">
         <v>34</v>
@@ -73347,7 +73347,7 @@
         <v>43312</v>
       </c>
       <c r="E920" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F920" t="s">
         <v>34</v>
@@ -73424,7 +73424,7 @@
         <v>43312</v>
       </c>
       <c r="E921" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F921" t="s">
         <v>34</v>
@@ -73501,7 +73501,7 @@
         <v>43312</v>
       </c>
       <c r="E922" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F922" t="s">
         <v>34</v>
@@ -73578,7 +73578,7 @@
         <v>43312</v>
       </c>
       <c r="E923" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F923" t="s">
         <v>34</v>
@@ -73655,7 +73655,7 @@
         <v>43312</v>
       </c>
       <c r="E924" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F924" t="s">
         <v>34</v>
@@ -73732,7 +73732,7 @@
         <v>43312</v>
       </c>
       <c r="E925" s="1">
-        <v>43315</v>
+        <v>43376</v>
       </c>
       <c r="F925" t="s">
         <v>34</v>
@@ -73809,7 +73809,7 @@
         <v>43312</v>
       </c>
       <c r="E926" s="1">
-        <v>43315</v>
+        <v>43376</v>
       </c>
       <c r="F926" t="s">
         <v>34</v>
@@ -73886,7 +73886,7 @@
         <v>43312</v>
       </c>
       <c r="E927" s="1">
-        <v>43315</v>
+        <v>43376</v>
       </c>
       <c r="F927" t="s">
         <v>34</v>
@@ -73963,7 +73963,7 @@
         <v>43312</v>
       </c>
       <c r="E928" s="1">
-        <v>43315</v>
+        <v>43376</v>
       </c>
       <c r="F928" t="s">
         <v>34</v>
@@ -74040,7 +74040,7 @@
         <v>43312</v>
       </c>
       <c r="E929" s="1">
-        <v>43315</v>
+        <v>43376</v>
       </c>
       <c r="F929" t="s">
         <v>34</v>
@@ -74117,7 +74117,7 @@
         <v>43312</v>
       </c>
       <c r="E930" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F930" t="s">
         <v>34</v>
@@ -74194,7 +74194,7 @@
         <v>43312</v>
       </c>
       <c r="E931" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F931" t="s">
         <v>34</v>
@@ -74271,7 +74271,7 @@
         <v>43312</v>
       </c>
       <c r="E932" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F932" t="s">
         <v>34</v>
@@ -74348,7 +74348,7 @@
         <v>43312</v>
       </c>
       <c r="E933" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F933" t="s">
         <v>34</v>
@@ -74425,7 +74425,7 @@
         <v>43312</v>
       </c>
       <c r="E934" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F934" t="s">
         <v>34</v>
@@ -74502,7 +74502,7 @@
         <v>43312</v>
       </c>
       <c r="E935" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F935" t="s">
         <v>34</v>
@@ -74579,7 +74579,7 @@
         <v>43312</v>
       </c>
       <c r="E936" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F936" t="s">
         <v>34</v>
@@ -74656,7 +74656,7 @@
         <v>43312</v>
       </c>
       <c r="E937" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F937" t="s">
         <v>34</v>
@@ -74733,7 +74733,7 @@
         <v>43312</v>
       </c>
       <c r="E938" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F938" t="s">
         <v>34</v>
@@ -74810,7 +74810,7 @@
         <v>43312</v>
       </c>
       <c r="E939" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F939" t="s">
         <v>34</v>
@@ -74887,7 +74887,7 @@
         <v>43312</v>
       </c>
       <c r="E940" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F940" t="s">
         <v>34</v>
@@ -74964,7 +74964,7 @@
         <v>43312</v>
       </c>
       <c r="E941" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F941" t="s">
         <v>34</v>
@@ -75041,7 +75041,7 @@
         <v>43312</v>
       </c>
       <c r="E942" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F942" t="s">
         <v>34</v>
@@ -75118,7 +75118,7 @@
         <v>43312</v>
       </c>
       <c r="E943" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F943" t="s">
         <v>34</v>
@@ -75195,7 +75195,7 @@
         <v>43312</v>
       </c>
       <c r="E944" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F944" t="s">
         <v>34</v>
@@ -75272,7 +75272,7 @@
         <v>43312</v>
       </c>
       <c r="E945" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F945" t="s">
         <v>34</v>
@@ -75349,7 +75349,7 @@
         <v>43312</v>
       </c>
       <c r="E946" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F946" t="s">
         <v>34</v>
@@ -75426,7 +75426,7 @@
         <v>43312</v>
       </c>
       <c r="E947" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F947" t="s">
         <v>34</v>
@@ -75503,7 +75503,7 @@
         <v>43312</v>
       </c>
       <c r="E948" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F948" t="s">
         <v>34</v>
@@ -75580,7 +75580,7 @@
         <v>43312</v>
       </c>
       <c r="E949" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F949" t="s">
         <v>34</v>
@@ -75657,7 +75657,7 @@
         <v>43312</v>
       </c>
       <c r="E950" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F950" t="s">
         <v>34</v>
@@ -75734,7 +75734,7 @@
         <v>43312</v>
       </c>
       <c r="E951" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F951" t="s">
         <v>34</v>
@@ -75811,7 +75811,7 @@
         <v>43312</v>
       </c>
       <c r="E952" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F952" t="s">
         <v>34</v>
@@ -75888,7 +75888,7 @@
         <v>43312</v>
       </c>
       <c r="E953" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F953" t="s">
         <v>34</v>
@@ -75965,7 +75965,7 @@
         <v>43312</v>
       </c>
       <c r="E954" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F954" t="s">
         <v>34</v>
@@ -76042,7 +76042,7 @@
         <v>43312</v>
       </c>
       <c r="E955" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F955" t="s">
         <v>34</v>
@@ -76119,7 +76119,7 @@
         <v>43312</v>
       </c>
       <c r="E956" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F956" t="s">
         <v>34</v>
@@ -76196,7 +76196,7 @@
         <v>43312</v>
       </c>
       <c r="E957" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F957" t="s">
         <v>34</v>
@@ -76273,7 +76273,7 @@
         <v>43312</v>
       </c>
       <c r="E958" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F958" t="s">
         <v>34</v>
@@ -76350,7 +76350,7 @@
         <v>43312</v>
       </c>
       <c r="E959" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F959" t="s">
         <v>34</v>
@@ -76427,7 +76427,7 @@
         <v>43312</v>
       </c>
       <c r="E960" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F960" t="s">
         <v>34</v>
@@ -76504,7 +76504,7 @@
         <v>43312</v>
       </c>
       <c r="E961" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F961" t="s">
         <v>34</v>
@@ -76581,7 +76581,7 @@
         <v>43312</v>
       </c>
       <c r="E962" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F962" t="s">
         <v>34</v>
@@ -76658,7 +76658,7 @@
         <v>43312</v>
       </c>
       <c r="E963" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F963" t="s">
         <v>34</v>
@@ -76735,7 +76735,7 @@
         <v>43312</v>
       </c>
       <c r="E964" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F964" t="s">
         <v>34</v>
@@ -76812,7 +76812,7 @@
         <v>43312</v>
       </c>
       <c r="E965" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F965" t="s">
         <v>34</v>
@@ -76889,7 +76889,7 @@
         <v>43312</v>
       </c>
       <c r="E966" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F966" t="s">
         <v>34</v>
@@ -76966,7 +76966,7 @@
         <v>43312</v>
       </c>
       <c r="E967" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F967" t="s">
         <v>34</v>
@@ -77043,7 +77043,7 @@
         <v>43312</v>
       </c>
       <c r="E968" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F968" t="s">
         <v>34</v>
@@ -77120,7 +77120,7 @@
         <v>43312</v>
       </c>
       <c r="E969" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F969" t="s">
         <v>34</v>
@@ -77197,7 +77197,7 @@
         <v>43312</v>
       </c>
       <c r="E970" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F970" t="s">
         <v>34</v>
@@ -77274,7 +77274,7 @@
         <v>43312</v>
       </c>
       <c r="E971" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F971" t="s">
         <v>34</v>
@@ -77351,7 +77351,7 @@
         <v>43312</v>
       </c>
       <c r="E972" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F972" t="s">
         <v>34</v>
@@ -77428,7 +77428,7 @@
         <v>43312</v>
       </c>
       <c r="E973" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F973" t="s">
         <v>34</v>
@@ -77505,7 +77505,7 @@
         <v>43312</v>
       </c>
       <c r="E974" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F974" t="s">
         <v>34</v>
@@ -77582,7 +77582,7 @@
         <v>43312</v>
       </c>
       <c r="E975" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F975" t="s">
         <v>34</v>
@@ -77659,7 +77659,7 @@
         <v>43312</v>
       </c>
       <c r="E976" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F976" t="s">
         <v>34</v>
@@ -77736,7 +77736,7 @@
         <v>43312</v>
       </c>
       <c r="E977" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F977" t="s">
         <v>34</v>
@@ -77813,7 +77813,7 @@
         <v>43312</v>
       </c>
       <c r="E978" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F978" t="s">
         <v>34</v>
@@ -77890,7 +77890,7 @@
         <v>43312</v>
       </c>
       <c r="E979" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F979" t="s">
         <v>34</v>
@@ -77967,7 +77967,7 @@
         <v>43312</v>
       </c>
       <c r="E980" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F980" t="s">
         <v>34</v>
@@ -78044,7 +78044,7 @@
         <v>43312</v>
       </c>
       <c r="E981" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F981" t="s">
         <v>34</v>
@@ -78121,7 +78121,7 @@
         <v>43312</v>
       </c>
       <c r="E982" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F982" t="s">
         <v>34</v>
@@ -78198,7 +78198,7 @@
         <v>43312</v>
       </c>
       <c r="E983" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F983" t="s">
         <v>34</v>
@@ -78275,7 +78275,7 @@
         <v>43312</v>
       </c>
       <c r="E984" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F984" t="s">
         <v>34</v>
@@ -78352,7 +78352,7 @@
         <v>43312</v>
       </c>
       <c r="E985" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F985" t="s">
         <v>34</v>
@@ -78429,7 +78429,7 @@
         <v>43312</v>
       </c>
       <c r="E986" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F986" t="s">
         <v>34</v>
@@ -78506,7 +78506,7 @@
         <v>43312</v>
       </c>
       <c r="E987" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F987" t="s">
         <v>34</v>
@@ -78583,7 +78583,7 @@
         <v>43312</v>
       </c>
       <c r="E988" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F988" t="s">
         <v>34</v>
@@ -78660,7 +78660,7 @@
         <v>43312</v>
       </c>
       <c r="E989" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F989" t="s">
         <v>34</v>
@@ -78737,7 +78737,7 @@
         <v>43312</v>
       </c>
       <c r="E990" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F990" t="s">
         <v>34</v>
@@ -78814,7 +78814,7 @@
         <v>43312</v>
       </c>
       <c r="E991" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F991" t="s">
         <v>34</v>
@@ -78891,7 +78891,7 @@
         <v>43312</v>
       </c>
       <c r="E992" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F992" t="s">
         <v>34</v>
@@ -78968,7 +78968,7 @@
         <v>43312</v>
       </c>
       <c r="E993" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F993" t="s">
         <v>34</v>
@@ -79045,7 +79045,7 @@
         <v>43312</v>
       </c>
       <c r="E994" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F994" t="s">
         <v>34</v>
@@ -79122,7 +79122,7 @@
         <v>43312</v>
       </c>
       <c r="E995" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F995" t="s">
         <v>34</v>
@@ -79199,7 +79199,7 @@
         <v>43312</v>
       </c>
       <c r="E996" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F996" t="s">
         <v>34</v>
@@ -79276,7 +79276,7 @@
         <v>43312</v>
       </c>
       <c r="E997" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F997" t="s">
         <v>34</v>
@@ -79353,7 +79353,7 @@
         <v>43312</v>
       </c>
       <c r="E998" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F998" t="s">
         <v>34</v>
@@ -79430,7 +79430,7 @@
         <v>43312</v>
       </c>
       <c r="E999" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F999" t="s">
         <v>34</v>
@@ -79507,7 +79507,7 @@
         <v>43312</v>
       </c>
       <c r="E1000" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F1000" t="s">
         <v>34</v>
@@ -79584,7 +79584,7 @@
         <v>43312</v>
       </c>
       <c r="E1001" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F1001" t="s">
         <v>34</v>
@@ -79661,7 +79661,7 @@
         <v>43312</v>
       </c>
       <c r="E1002" s="1">
-        <v>43314</v>
+        <v>43375</v>
       </c>
       <c r="F1002" t="s">
         <v>34</v>
